--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8E6FC-2C67-41B2-91E5-27EFE03EE20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682C3C1-DB37-4563-A315-3D1E7820837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>e_id</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>https://www.futurelearn.com/certificates/5f4cksb</t>
-  </si>
-  <si>
-    <t>########</t>
   </si>
   <si>
     <t>Salesforce Certified Associate</t>
@@ -518,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,17 +526,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,28 +764,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7"/>
+    <col min="5" max="5" width="31.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -826,7 +829,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.25">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -839,7 +842,7 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4"/>
@@ -856,15 +859,15 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -877,10 +880,10 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
@@ -890,23 +893,23 @@
       <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -919,7 +922,7 @@
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3">
@@ -931,22 +934,22 @@
       <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -959,7 +962,7 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4"/>
@@ -975,16 +978,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -994,33 +997,33 @@
       <c r="C6" s="5">
         <v>44531</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1033,10 +1036,10 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1046,11 +1049,11 @@
       <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1070,11 +1073,11 @@
       <c r="C8" s="5">
         <v>44614</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1088,15 +1091,15 @@
       <c r="M8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1106,69 +1109,69 @@
       <c r="C9" s="5">
         <v>44795</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="3">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11">
+        <v>45242</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1178,69 +1181,69 @@
       <c r="C11" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="3">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="11">
+        <v>44911</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -1250,33 +1253,33 @@
       <c r="C13" s="5">
         <v>44986</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -1286,33 +1289,33 @@
       <c r="C14" s="5">
         <v>45078</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -1322,33 +1325,33 @@
       <c r="C15" s="5">
         <v>45047</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -1358,31 +1361,31 @@
       <c r="C16" s="5">
         <v>45078</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7" t="s">
+      <c r="D16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -1392,31 +1395,31 @@
       <c r="C17" s="5">
         <v>45078</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -1426,15 +1429,15 @@
       <c r="C18" s="5">
         <v>45108</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1442,15 +1445,15 @@
       <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -1460,15 +1463,15 @@
       <c r="C19" s="5">
         <v>45231</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1476,15 +1479,15 @@
       <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -1494,35 +1497,35 @@
       <c r="C20" s="5">
         <v>45292</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -1532,35 +1535,35 @@
       <c r="C21" s="5">
         <v>45323</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -1570,35 +1573,35 @@
       <c r="C22" s="5">
         <v>45323</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1608,31 +1611,31 @@
       <c r="C23" s="5">
         <v>45292</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7" t="s">
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -1642,31 +1645,31 @@
       <c r="C24" s="5">
         <v>45261</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7" t="s">
+      <c r="D24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -1676,35 +1679,35 @@
       <c r="C25" s="5">
         <v>45627</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="3">
         <v>38</v>
       </c>
@@ -1714,31 +1717,31 @@
       <c r="C26" s="5">
         <v>45689</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="3">
         <v>39</v>
       </c>
@@ -1748,33 +1751,33 @@
       <c r="C27" s="5">
         <v>45717</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -1784,11 +1787,11 @@
       <c r="C28" s="5">
         <v>45717</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>47</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1810,7 +1813,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -1821,12 +1824,12 @@
         <v>45717</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1834,23 +1837,23 @@
         <v>17</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -1861,32 +1864,32 @@
         <v>35855</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="14.25">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -1897,26 +1900,26 @@
         <v>35855</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="9"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -1933,28 +1936,28 @@
         <v>35855</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
@@ -1963,29 +1966,90 @@
         <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45752</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="12">
-        <v>45752</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="G33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2000,67 +2064,6 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682C3C1-DB37-4563-A315-3D1E7820837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8AC614-2BEC-4E43-A0C5-E50E35ABC2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45168" yWindow="912" windowWidth="34560" windowHeight="18552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
   <si>
     <t>e_id</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>06- Workshops, Bootcamps and Presentations</t>
+  </si>
+  <si>
+    <t>Agentic AI Innovation Session with AWS and Salesforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce,  enhancing their workflows with efficiency and speed.  AWS and Salesforce explore  their Agentic AI products and perform a demo of a  use case Salesforce built for DOGE.  This is an ideation session for Booz Allen technical  and sales leader for use cases we can  co-develop and close with our partners. </t>
   </si>
 </sst>
 </file>
@@ -528,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,6 +548,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,33 +769,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" style="7"/>
-    <col min="5" max="5" width="31.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="7"/>
+    <col min="5" max="5" width="31.7265625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -829,7 +838,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" ht="14">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -842,7 +851,7 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4"/>
@@ -859,15 +868,15 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" ht="14">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -880,10 +889,10 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
@@ -893,23 +902,23 @@
       <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="14">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -922,7 +931,7 @@
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3">
@@ -934,22 +943,22 @@
       <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -962,7 +971,7 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4"/>
@@ -978,16 +987,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -997,33 +1006,33 @@
       <c r="C6" s="5">
         <v>44531</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="14">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1036,10 +1045,10 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1049,11 +1058,11 @@
       <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1072,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1073,11 +1082,11 @@
       <c r="C8" s="5">
         <v>44614</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1091,15 +1100,15 @@
       <c r="M8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="14">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1109,69 +1118,69 @@
       <c r="C9" s="5">
         <v>44795</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="14">
       <c r="A10" s="3">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>45242</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" ht="14">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1181,69 +1190,69 @@
       <c r="C11" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="14">
       <c r="A12" s="3">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>44911</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25">
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="14">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -1253,33 +1262,33 @@
       <c r="C13" s="5">
         <v>44986</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="14">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -1289,33 +1298,33 @@
       <c r="C14" s="5">
         <v>45078</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="14">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -1325,33 +1334,33 @@
       <c r="C15" s="5">
         <v>45047</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -1361,31 +1370,31 @@
       <c r="C16" s="5">
         <v>45078</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.25">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" ht="14">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -1395,31 +1404,31 @@
       <c r="C17" s="5">
         <v>45078</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.25">
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" ht="14">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -1429,15 +1438,15 @@
       <c r="C18" s="5">
         <v>45108</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1445,15 +1454,15 @@
       <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" ht="14">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -1463,15 +1472,15 @@
       <c r="C19" s="5">
         <v>45231</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1479,15 +1488,15 @@
       <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25">
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" ht="14">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -1497,35 +1506,35 @@
       <c r="C20" s="5">
         <v>45292</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.25">
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" ht="14">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -1535,10 +1544,10 @@
       <c r="C21" s="5">
         <v>45323</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>73</v>
@@ -1546,24 +1555,24 @@
       <c r="H21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25">
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" ht="14">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -1573,10 +1582,10 @@
       <c r="C22" s="5">
         <v>45323</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>73</v>
@@ -1584,24 +1593,24 @@
       <c r="H22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25">
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" ht="14">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1611,31 +1620,31 @@
       <c r="C23" s="5">
         <v>45292</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.25">
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" ht="14">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -1645,31 +1654,31 @@
       <c r="C24" s="5">
         <v>45261</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.25">
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:18" ht="14">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -1679,11 +1688,11 @@
       <c r="C25" s="5">
         <v>45627</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="4" t="s">
         <v>87</v>
       </c>
@@ -1699,15 +1708,15 @@
       <c r="M25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25">
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="1:18" ht="14">
       <c r="A26" s="3">
         <v>38</v>
       </c>
@@ -1717,11 +1726,11 @@
       <c r="C26" s="5">
         <v>45689</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1732,16 +1741,16 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="9"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25">
+    <row r="27" spans="1:18" ht="14">
       <c r="A27" s="3">
         <v>39</v>
       </c>
@@ -1751,33 +1760,33 @@
       <c r="C27" s="5">
         <v>45717</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25">
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:18" ht="14">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -1787,11 +1796,11 @@
       <c r="C28" s="5">
         <v>45717</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1813,7 +1822,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="1:18" ht="14">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -1826,10 +1835,10 @@
       <c r="D29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1845,15 +1854,15 @@
       <c r="M29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25">
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="14">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -1866,7 +1875,7 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>105</v>
       </c>
       <c r="F30" s="4"/>
@@ -1880,16 +1889,16 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25">
+    <row r="31" spans="1:18" ht="14">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -1902,7 +1911,7 @@
       <c r="D31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="4"/>
@@ -1916,16 +1925,16 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25">
+    <row r="32" spans="1:18" ht="14">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -1938,7 +1947,7 @@
       <c r="D32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F32" s="4"/>
@@ -1952,12 +1961,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
@@ -1974,7 +1983,7 @@
       <c r="D33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1987,69 +1996,40 @@
         <v>120</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A34" s="3">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="7">
+        <v>45776</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2064,6 +2044,67 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2092,4 +2133,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3de9faa6-9fe1-49b3-9a08-227a296b54a6}" enabled="1" method="Privileged" siteId="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8AC614-2BEC-4E43-A0C5-E50E35ABC2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9038164-67C9-4CF0-AEFD-FDC04A374E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45168" yWindow="912" windowWidth="34560" windowHeight="18552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,13 +452,13 @@
     <t>Selenium</t>
   </si>
   <si>
-    <t>06- Workshops, Bootcamps and Presentations</t>
-  </si>
-  <si>
     <t>Agentic AI Innovation Session with AWS and Salesforce</t>
   </si>
   <si>
     <t xml:space="preserve">Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce,  enhancing their workflows with efficiency and speed.  AWS and Salesforce explore  their Agentic AI products and perform a demo of a  use case Salesforce built for DOGE.  This is an ideation session for Booz Allen technical  and sales leader for use cases we can  co-develop and close with our partners. </t>
+  </si>
+  <si>
+    <t>06 Workshops, Bootcamps and Presentations</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2001,16 +2001,16 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C34" s="7">
         <v>45776</v>
       </c>
       <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
@@ -2030,6 +2030,67 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2044,67 +2105,6 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9038164-67C9-4CF0-AEFD-FDC04A374E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB975B5B-728A-429A-861E-52C7BE38459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45168" yWindow="912" windowWidth="34560" windowHeight="18552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
   <si>
     <t>e_id</t>
   </si>
@@ -459,6 +459,58 @@
   </si>
   <si>
     <t>06 Workshops, Bootcamps and Presentations</t>
+  </si>
+  <si>
+    <t>Case Study: Salesforce / Palantir Colab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Palantir Foundry × Salesforce Integration Overview
+Palantir Foundry ships with a **native Salesforce connector** that syncs Salesforce data (standard *and* custom objects) into Foundry datasets for exploration and analysis.  
+The connector auto-discovers object schemas, maps Salesforce API types to Foundry field types, and supports high-volume *bulk* imports.
+---
+## ⭐ Key Features
+- Connects to **production or sandbox** orgs  
+- Secure auth via **OAuth 2.0 (JWT or username + password)**  
+- **Auto-models** Salesforce objects as Foundry datasets (browse/preview before import)  
+- **Bulk import** GA; *export back to Salesforce is not built-in*  
+---
+## ⚙️ Technical Setup Highlights
+- Create a **Salesforce Connected App** with proper OAuth scopes (e.g., `api`)  
+- Auth options: **certificate** (PFX, Base64) *or* OAuth client/secret  
+- Ensure network/firewall rules let Foundry reach Salesforce endpoints (else errors like `UnknownHostException`)  
+- **Upgrade** legacy connector versions for full support &amp; bug fixes  
+---
+## 🚀 Use Cases
+### Data Sync &amp; Enrichment
+- Pull CRM data into Foundry for advanced analytics / AI models  
+- Enrich Salesforce records with ERP, finance, or other enterprise data already in Foundry  
+- Give execs a 360° customer view that blends Salesforce + external sources  
+### Automation &amp; AI-Driven Support
+- Palantir deploys **AI customer-service engines** that query Salesforce + SAP/UPS/ERP data for faster, smarter case resolution  
+### Security Review Acceleration
+- Link security docs stored in Foundry to **Salesforce-managed sales cycles** for self-service buyer access  
+### Enterprise-Scale Integration
+- Large-scale roll-outs alongside Workday, Concur, NetSuite, Oracle, Coupa  
+- Used **MuleSoft** + agile methods to 10× integration throughput and automation speed  
+---
+## ⚠️ Challenges &amp; Workarounds
+- **No native export** → use Python transforms or ELT tools (e.g., *Hightouch*) to push data *back* to Salesforce  
+- Missing OAuth scopes block access—double-check Connected App permissions  
+- Misconfigured trusted IPs / firewalls break connectivity  
+---
+## 🔄 Conceptual Flow
+1. **Setup**  
+   - Create Connected App → grant `api` scope  
+   - Configure connector with OAuth creds / cert  
+2. **Import**  
+   - Bulk-load objects (Leads, Accounts, Opportunities) into Foundry datasets  
+3. **Enrich / Analyze**  
+   - Join with other data sources → analytics, AI training, dashboards  
+4. **(Optional) Sync Back**  
+   - External tool / custom Python pushes enriched data to Salesforce  </t>
+  </si>
+  <si>
+    <t>palantir_foundry</t>
   </si>
 </sst>
 </file>
@@ -524,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,6 +603,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,17 +824,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" style="7"/>
-    <col min="5" max="5" width="31.7265625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7"/>
+    <col min="5" max="5" width="31.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -838,7 +893,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14">
+    <row r="2" spans="1:26" ht="14.25">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -876,7 +931,7 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="14">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -918,7 +973,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -958,7 +1013,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -996,7 +1051,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -1032,7 +1087,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1072,7 +1127,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1108,7 +1163,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1144,7 +1199,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -1180,7 +1235,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1216,7 +1271,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -1252,7 +1307,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -1288,7 +1343,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -1324,7 +1379,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -1360,7 +1415,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -1394,7 +1449,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" ht="14">
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -1428,7 +1483,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" ht="14">
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -1462,7 +1517,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" ht="14">
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -1496,7 +1551,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" ht="14">
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -1534,7 +1589,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" ht="14">
+    <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -1572,7 +1627,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" ht="14">
+    <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -1610,7 +1665,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" ht="14">
+    <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1644,7 +1699,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:18" ht="14">
+    <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -1678,7 +1733,7 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" ht="14">
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -1716,7 +1771,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" ht="14">
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="3">
         <v>38</v>
       </c>
@@ -1750,7 +1805,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="3">
         <v>39</v>
       </c>
@@ -1786,7 +1841,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" ht="14">
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -1822,7 +1877,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14">
+    <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -1862,7 +1917,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" ht="14">
+    <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -1898,7 +1953,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14">
+    <row r="31" spans="1:18" ht="14.25">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -1934,7 +1989,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14">
+    <row r="32" spans="1:18" ht="14.25">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -2028,69 +2083,34 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35" spans="1:13" ht="409.5">
+      <c r="A35" s="3">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="7">
+        <v>45748</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2105,6 +2125,67 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB975B5B-728A-429A-861E-52C7BE38459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B868A-9C96-44A0-8D2B-1C5F4FE50B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>e_id</t>
   </si>
@@ -464,53 +464,52 @@
     <t>Case Study: Salesforce / Palantir Colab</t>
   </si>
   <si>
-    <t xml:space="preserve"># Palantir Foundry × Salesforce Integration Overview
-Palantir Foundry ships with a **native Salesforce connector** that syncs Salesforce data (standard *and* custom objects) into Foundry datasets for exploration and analysis.  
-The connector auto-discovers object schemas, maps Salesforce API types to Foundry field types, and supports high-volume *bulk* imports.
----
-## ⭐ Key Features
-- Connects to **production or sandbox** orgs  
-- Secure auth via **OAuth 2.0 (JWT or username + password)**  
-- **Auto-models** Salesforce objects as Foundry datasets (browse/preview before import)  
-- **Bulk import** GA; *export back to Salesforce is not built-in*  
----
-## ⚙️ Technical Setup Highlights
-- Create a **Salesforce Connected App** with proper OAuth scopes (e.g., `api`)  
-- Auth options: **certificate** (PFX, Base64) *or* OAuth client/secret  
-- Ensure network/firewall rules let Foundry reach Salesforce endpoints (else errors like `UnknownHostException`)  
-- **Upgrade** legacy connector versions for full support &amp; bug fixes  
----
-## 🚀 Use Cases
-### Data Sync &amp; Enrichment
-- Pull CRM data into Foundry for advanced analytics / AI models  
-- Enrich Salesforce records with ERP, finance, or other enterprise data already in Foundry  
-- Give execs a 360° customer view that blends Salesforce + external sources  
-### Automation &amp; AI-Driven Support
-- Palantir deploys **AI customer-service engines** that query Salesforce + SAP/UPS/ERP data for faster, smarter case resolution  
-### Security Review Acceleration
-- Link security docs stored in Foundry to **Salesforce-managed sales cycles** for self-service buyer access  
-### Enterprise-Scale Integration
-- Large-scale roll-outs alongside Workday, Concur, NetSuite, Oracle, Coupa  
-- Used **MuleSoft** + agile methods to 10× integration throughput and automation speed  
----
-## ⚠️ Challenges &amp; Workarounds
-- **No native export** → use Python transforms or ELT tools (e.g., *Hightouch*) to push data *back* to Salesforce  
-- Missing OAuth scopes block access—double-check Connected App permissions  
-- Misconfigured trusted IPs / firewalls break connectivity  
----
-## 🔄 Conceptual Flow
-1. **Setup**  
-   - Create Connected App → grant `api` scope  
-   - Configure connector with OAuth creds / cert  
-2. **Import**  
-   - Bulk-load objects (Leads, Accounts, Opportunities) into Foundry datasets  
-3. **Enrich / Analyze**  
-   - Join with other data sources → analytics, AI training, dashboards  
-4. **(Optional) Sync Back**  
-   - External tool / custom Python pushes enriched data to Salesforce  </t>
-  </si>
-  <si>
-    <t>palantir_foundry</t>
+    <t>&lt;!-- Palantir Foundry × Salesforce Integration Overview --&gt;
+&lt;p&gt;&lt;strong&gt;Palantir Foundry × Salesforce Integration Overview&lt;/strong&gt;&lt;br&gt;
+Palantir Foundry ships with a &lt;strong&gt;native Salesforce connector&lt;/strong&gt; that syncs Salesforce data (standard and custom objects) into Foundry datasets for exploration and analysis. The connector auto-discovers object schemas, maps Salesforce API types to Foundry field types, and supports high-volume &lt;em&gt;bulk&lt;/em&gt; imports.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Connects to &lt;strong&gt;production or sandbox&lt;/strong&gt; orgs&lt;/li&gt;
+  &lt;li&gt;Secure authentication via &lt;strong&gt;OAuth 2.0 (JWT or username + password)&lt;/strong&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;Auto-models&lt;/strong&gt; Salesforce objects as Foundry datasets (browse/preview before import)&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;Bulk import&lt;/strong&gt; GA — &lt;em&gt;export back to Salesforce is not built in&lt;/em&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Technical Setup Highlights&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Create a &lt;strong&gt;Salesforce Connected App&lt;/strong&gt; with OAuth scope &lt;code&gt;api&lt;/code&gt;&lt;/li&gt;
+  &lt;li&gt;Auth options: certificate (PFX, Base64) or OAuth client/secret&lt;/li&gt;
+  &lt;li&gt;Ensure network/firewall rules allow Foundry → Salesforce (avoid &lt;code&gt;UnknownHostException&lt;/code&gt;)&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;Upgrade&lt;/strong&gt; legacy connector versions for full support &amp;amp; fixes&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Use Cases&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Data Sync &amp;amp; Enrichment&lt;/em&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Pull CRM data into Foundry for advanced analytics / AI models&lt;/li&gt;
+  &lt;li&gt;Enrich Salesforce records with ERP, finance, or other enterprise data already in Foundry&lt;/li&gt;
+  &lt;li&gt;Provide a 360° customer view blending Salesforce &amp;amp; external sources&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Automation &amp;amp; AI-Driven Support&lt;/em&gt;&lt;br&gt;
+Palantir deploys &lt;strong&gt;AI customer-service engines&lt;/strong&gt; that query Salesforce plus SAP/UPS/ERP data to accelerate and improve case resolution.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Security Review Acceleration&lt;/em&gt;&lt;br&gt;
+Link security docs stored in Foundry to &lt;strong&gt;Salesforce-managed sales cycles&lt;/strong&gt;, giving buyers self-service access to required documentation.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Enterprise-Scale Integration&lt;/em&gt;&lt;br&gt;
+Large-scale roll-outs alongside Workday, Concur, NetSuite, Oracle, Coupa using &lt;strong&gt;MuleSoft&lt;/strong&gt; and agile methods to 10× integration throughput.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; Workarounds&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;&lt;strong&gt;No native export&lt;/strong&gt; → use Python transforms or ELT tools (e.g., Hightouch) to push data back&lt;/li&gt;
+  &lt;li&gt;Missing OAuth scopes block access — double-check Connected App permissions&lt;/li&gt;
+  &lt;li&gt;Misconfigured trusted IPs / firewalls break connectivity&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Conceptual Flow&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;&lt;strong&gt;Setup&lt;/strong&gt; — create Connected App (scope &lt;code&gt;api&lt;/code&gt;), configure connector with OAuth creds / cert&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;Import&lt;/strong&gt; — bulk-load objects (Leads, Accounts, Opportunities) into Foundry datasets&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;Enrich / Analyze&lt;/strong&gt; — join with other data sources → analytics, AI training, dashboards&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;(Optional) Sync Back&lt;/strong&gt; — external tool / custom Python pushes enriched data to Salesforce&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>palantir-foundry</t>
   </si>
 </sst>
 </file>
@@ -828,7 +827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2107,6 +2106,9 @@
       </c>
       <c r="I35" t="s">
         <v>126</v>
+      </c>
+      <c r="M35" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B868A-9C96-44A0-8D2B-1C5F4FE50B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AE8BD-FAD2-47CF-9F44-A2BDE60C1744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>palantir-foundry</t>
+    <t>palantir foundry</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AE8BD-FAD2-47CF-9F44-A2BDE60C1744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E39F7-4C6C-47E6-B3D9-D5B9832E0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>palantir foundry</t>
+    <t>palantirFoundry</t>
   </si>
 </sst>
 </file>
@@ -599,12 +599,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,14 +826,15 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="12.5703125" style="7"/>
     <col min="5" max="5" width="31.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -922,13 +923,13 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="3">
@@ -943,10 +944,10 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
@@ -956,21 +957,21 @@
       <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="14.25">
       <c r="A4" s="3">
@@ -997,16 +998,16 @@
       <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1041,12 +1042,12 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
@@ -1060,31 +1061,31 @@
       <c r="C6" s="5">
         <v>44531</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="3">
@@ -1099,10 +1100,10 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1112,11 +1113,11 @@
       <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1136,11 +1137,11 @@
       <c r="C8" s="5">
         <v>44614</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1154,13 +1155,13 @@
       <c r="M8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="3">
@@ -1172,31 +1173,31 @@
       <c r="C9" s="5">
         <v>44795</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="3">
@@ -1208,31 +1209,31 @@
       <c r="C10" s="8">
         <v>45242</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="3">
@@ -1244,31 +1245,31 @@
       <c r="C11" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="3">
@@ -1280,31 +1281,31 @@
       <c r="C12" s="8">
         <v>44911</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="3">
@@ -1316,31 +1317,31 @@
       <c r="C13" s="5">
         <v>44986</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="3">
@@ -1352,31 +1353,31 @@
       <c r="C14" s="5">
         <v>45078</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="3">
@@ -1388,31 +1389,31 @@
       <c r="C15" s="5">
         <v>45047</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="3">
@@ -1424,29 +1425,29 @@
       <c r="C16" s="5">
         <v>45078</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="3">
@@ -1458,29 +1459,29 @@
       <c r="C17" s="5">
         <v>45078</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="3">
@@ -1492,15 +1493,15 @@
       <c r="C18" s="5">
         <v>45108</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1508,13 +1509,13 @@
       <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="3">
@@ -1526,15 +1527,15 @@
       <c r="C19" s="5">
         <v>45231</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1542,13 +1543,13 @@
       <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="3">
@@ -1560,33 +1561,33 @@
       <c r="C20" s="5">
         <v>45292</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="3">
@@ -1598,10 +1599,10 @@
       <c r="C21" s="5">
         <v>45323</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>73</v>
@@ -1609,22 +1610,22 @@
       <c r="H21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="3">
@@ -1636,10 +1637,10 @@
       <c r="C22" s="5">
         <v>45323</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>73</v>
@@ -1647,22 +1648,22 @@
       <c r="H22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="3">
@@ -1674,29 +1675,29 @@
       <c r="C23" s="5">
         <v>45292</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="3">
@@ -1708,29 +1709,29 @@
       <c r="C24" s="5">
         <v>45261</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="3">
@@ -1742,11 +1743,11 @@
       <c r="C25" s="5">
         <v>45627</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="4" t="s">
         <v>87</v>
       </c>
@@ -1762,13 +1763,13 @@
       <c r="M25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="3">
@@ -1780,11 +1781,11 @@
       <c r="C26" s="5">
         <v>45689</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1795,10 +1796,10 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="16"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -1814,31 +1815,31 @@
       <c r="C27" s="5">
         <v>45717</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="3">
@@ -1850,11 +1851,11 @@
       <c r="C28" s="5">
         <v>45717</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1889,10 +1890,10 @@
       <c r="D29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1908,13 +1909,13 @@
       <c r="M29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="3">
@@ -1943,12 +1944,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
@@ -1979,10 +1980,10 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="16"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2015,12 +2016,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
@@ -2095,7 +2096,7 @@
       <c r="D35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="15" t="s">
         <v>125</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2113,6 +2114,67 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2127,67 +2189,6 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E39F7-4C6C-47E6-B3D9-D5B9832E0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA527950-3C27-471D-B466-0218C7FCCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
   <si>
     <t>e_id</t>
   </si>
@@ -458,9 +458,6 @@
     <t xml:space="preserve">Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce,  enhancing their workflows with efficiency and speed.  AWS and Salesforce explore  their Agentic AI products and perform a demo of a  use case Salesforce built for DOGE.  This is an ideation session for Booz Allen technical  and sales leader for use cases we can  co-develop and close with our partners. </t>
   </si>
   <si>
-    <t>06 Workshops, Bootcamps and Presentations</t>
-  </si>
-  <si>
     <t>Case Study: Salesforce / Palantir Colab</t>
   </si>
   <si>
@@ -510,6 +507,12 @@
   </si>
   <si>
     <t>palantirFoundry</t>
+  </si>
+  <si>
+    <t>01 Award</t>
+  </si>
+  <si>
+    <t>05 Feedback</t>
   </si>
 </sst>
 </file>
@@ -825,13 +828,14 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="7"/>
     <col min="5" max="5" width="31.7109375" style="14" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
@@ -972,6 +976,9 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
+      <c r="T3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25">
       <c r="A4" s="3">
@@ -1012,6 +1019,9 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="3">
@@ -1050,6 +1060,9 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
+      <c r="T5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="3">
@@ -1086,6 +1099,9 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
+      <c r="T6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="3">
@@ -1126,6 +1142,9 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
+      <c r="T7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="3">
@@ -2055,8 +2074,8 @@
       <c r="A34" s="3">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
-        <v>123</v>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="7">
         <v>45776</v>
@@ -2094,10 +2113,10 @@
         <v>45748</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>101</v>
@@ -2106,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M35" t="s">
         <v>66</v>
@@ -2114,67 +2133,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="N18:R18"/>
@@ -2189,7 +2147,73 @@
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="M30:P30"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B34" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+      <formula1>$T$3:$T$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA527950-3C27-471D-B466-0218C7FCCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC2E2C2-5E84-4BE5-AB82-F78A37379053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,8 +829,8 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2210,7 +2210,7 @@
     <mergeCell ref="I21:J21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B34" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC2E2C2-5E84-4BE5-AB82-F78A37379053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD3911-CAB6-4BD0-8C7B-15AD921C0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>e_id</t>
   </si>
@@ -513,6 +513,23 @@
   </si>
   <si>
     <t>05 Feedback</t>
+  </si>
+  <si>
+    <t>e_image</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;An AWS Certified Cloud Practitioner, having successfully completed the foundational certification that validates a broad understanding of AWS Cloud concepts, services, and terminology. This certification demonstrates the ability to articulate the value of the AWS Cloud, understand its global infrastructure, and explain key services such as compute, storage, networking, and databases.&lt;p&gt;
+&lt;p&gt;The certification covers:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;AWS Cloud concepts:&lt;/strong&gt; A including the benefits of cloud computing, such as scalability, elasticity, and cost-efficiency.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Core AWS services:&lt;/strong&gt; like Amazon EC2, S3, RDS, Lambda, and more.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Security and compliance:&lt;/strong&gt; understanding the AWS shared responsibility model, identity and access management (IAM), and data protection strategies.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Cloud economics:&lt;/strong&gt; including pricing models, billing tools, and cost optimization strategies.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;ACloud architecture principles:&lt;/strong&gt; such as high availability, fault tolerance, and disaster recovery.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+This credential establishes foundational cloud literacy and is ideal for individuals transitioning into cloud roles or supporting cloud initiatives across business functions.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -578,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,18 +613,34 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,33 +861,41 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="7"/>
-    <col min="5" max="5" width="31.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -881,10 +922,12 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -897,20 +940,20 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" ht="126">
       <c r="A2" s="3">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>44795</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4"/>
@@ -927,31 +970,26 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25">
+    </row>
+    <row r="3" spans="1:26" ht="112">
       <c r="A3" s="3">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>45718</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17"/>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
@@ -961,39 +999,34 @@
       <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="17"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
       <c r="T3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="70">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>45734</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3">
@@ -1005,16 +1038,13 @@
       <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="17"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1023,20 +1053,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="409.5">
       <c r="A5" s="3">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>35855</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4"/>
@@ -1052,74 +1082,64 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="T5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="98">
       <c r="A6" s="3">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>44531</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="17"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
       <c r="T6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="154">
       <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>45741</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="17"/>
       <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1129,15 +1149,13 @@
       <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
       <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1146,20 +1164,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="409.6">
       <c r="A8" s="3">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>44614</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
         <v>32</v>
@@ -1174,353 +1194,289 @@
       <c r="M8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25">
+    </row>
+    <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>44795</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="17"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25">
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1">
       <c r="A10" s="3">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="8">
         <v>45242</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="17"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25">
+    </row>
+    <row r="11" spans="1:26" ht="30" customHeight="1">
       <c r="A11" s="3">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="17"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25">
+    </row>
+    <row r="12" spans="1:26" ht="98">
       <c r="A12" s="3">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8">
         <v>44911</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="17"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25">
+    </row>
+    <row r="13" spans="1:26" ht="28">
       <c r="A13" s="3">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5">
         <v>44986</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25">
+    </row>
+    <row r="14" spans="1:26" ht="98">
       <c r="A14" s="3">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>45078</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25">
+    </row>
+    <row r="15" spans="1:26" ht="98">
       <c r="A15" s="3">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>45047</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="17"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25">
+    </row>
+    <row r="16" spans="1:26" ht="56">
       <c r="A16" s="3">
         <v>27</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>45078</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="16"/>
+      <c r="G16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.25">
+    </row>
+    <row r="17" spans="1:18" ht="56">
       <c r="A17" s="3">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>45078</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="16"/>
+      <c r="G17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.25">
+    </row>
+    <row r="18" spans="1:18" ht="98">
       <c r="A18" s="3">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5">
         <v>45108</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="16"/>
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1528,33 +1484,27 @@
       <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25">
+    </row>
+    <row r="19" spans="1:18" ht="98">
       <c r="A19" s="3">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5">
         <v>45231</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="16"/>
+      <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="17"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1562,66 +1512,56 @@
       <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25">
+    </row>
+    <row r="20" spans="1:18" ht="56">
       <c r="A20" s="3">
         <v>31</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5">
         <v>45292</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="17"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.25">
+    </row>
+    <row r="21" spans="1:18" ht="56">
       <c r="A21" s="3">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5">
         <v>45323</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>73</v>
@@ -1629,37 +1569,32 @@
       <c r="H21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="17"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25">
+    </row>
+    <row r="22" spans="1:18" ht="56">
       <c r="A22" s="3">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>45323</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>73</v>
@@ -1667,106 +1602,86 @@
       <c r="H22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="17"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25">
+    </row>
+    <row r="23" spans="1:18" ht="56">
       <c r="A23" s="3">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5">
         <v>45292</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16" t="s">
+      <c r="E23" s="16"/>
+      <c r="G23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.25">
+    </row>
+    <row r="24" spans="1:18" ht="56">
       <c r="A24" s="3">
         <v>35</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="5">
         <v>45261</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16" t="s">
+      <c r="E24" s="16"/>
+      <c r="G24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.25">
+    </row>
+    <row r="25" spans="1:18" ht="28">
       <c r="A25" s="3">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="5">
         <v>45627</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="G25" s="4" t="s">
         <v>87</v>
       </c>
@@ -1782,29 +1697,24 @@
       <c r="M25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25">
+    </row>
+    <row r="26" spans="1:18" ht="14">
       <c r="A26" s="3">
         <v>38</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="5">
         <v>45689</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1815,66 +1725,58 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="17"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25">
+    <row r="27" spans="1:18" ht="112">
       <c r="A27" s="3">
         <v>39</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="5">
         <v>45717</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="G27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="17"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25">
+    </row>
+    <row r="28" spans="1:18" ht="14">
       <c r="A28" s="3">
         <v>41</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="5">
         <v>45717</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1890,29 +1792,28 @@
       <c r="M28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="1:18" ht="154">
       <c r="A29" s="3">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="5">
         <v>45717</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="17"/>
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1928,28 +1829,24 @@
       <c r="M29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25">
+    </row>
+    <row r="30" spans="1:18" ht="409.5">
       <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>35855</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F30" s="4"/>
@@ -1963,29 +1860,26 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25">
+    <row r="31" spans="1:18" ht="409.5">
       <c r="A31" s="3">
         <v>11</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="5">
         <v>35855</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="4"/>
@@ -1999,29 +1893,28 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="17"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25">
+    <row r="32" spans="1:18" ht="409.5">
       <c r="A32" s="3">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5">
         <v>35855</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F32" s="4"/>
@@ -2035,12 +1928,9 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
@@ -2048,16 +1938,16 @@
       <c r="A33" s="3">
         <v>42</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="7">
         <v>45752</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2074,16 +1964,16 @@
       <c r="A34" s="3">
         <v>43</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="7">
         <v>45776</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G34" t="s">
@@ -2102,20 +1992,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.5">
+    <row r="35" spans="1:13" ht="409.6">
       <c r="A35" s="3">
         <v>44</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="7">
         <v>45748</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2132,83 +2022,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$7</formula1>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD3911-CAB6-4BD0-8C7B-15AD921C0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2716D-0FAF-4C25-AEB8-0300C775882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>e_id</t>
   </si>
@@ -530,6 +531,33 @@
 &lt;p&gt;
 This credential establishes foundational cloud literacy and is ideal for individuals transitioning into cloud roles or supporting cloud initiatives across business functions.
 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>02 Job Experience</t>
+  </si>
+  <si>
+    <t>QA Software Test Engineering: Java Page Objects</t>
+  </si>
+  <si>
+    <t>type options</t>
+  </si>
+  <si>
+    <t>tag options</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>qa software automation testing</t>
+  </si>
+  <si>
+    <t>qa software engineering</t>
+  </si>
+  <si>
+    <t>provar software testing</t>
+  </si>
+  <si>
+    <t>Created, edited, and maintained Java-based page object files in Provar to support automated testing of Salesforce functionality, ensuring reusable and maintainable test components aligned with UI changes.</t>
   </si>
 </sst>
 </file>
@@ -595,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,43 +631,60 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,372 +904,380 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="24.7265625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="66.36328125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="19" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" style="19"/>
+    <col min="9" max="9" width="17.453125" style="19" customWidth="1"/>
+    <col min="10" max="12" width="12.54296875" style="19"/>
+    <col min="13" max="13" width="17.90625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="16" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="126">
+    <row r="2" spans="1:26" ht="56">
       <c r="A2" s="3">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
         <v>44795</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="112">
+    <row r="3" spans="1:26" ht="56">
       <c r="A3" s="3">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="9">
         <v>45718</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>29</v>
       </c>
       <c r="T3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="70">
+    <row r="4" spans="1:26" ht="56">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <v>45734</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="409.5">
+      <c r="T4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="280">
       <c r="A5" s="3">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
         <v>35855</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="T5" t="s">
-        <v>127</v>
+      <c r="T5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="98">
       <c r="A6" s="3">
         <v>14</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9">
         <v>44531</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="14"/>
+      <c r="G6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="154">
+      <c r="T6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="70">
       <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>45741</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="T7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="409.6">
+      <c r="T7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="337.5">
       <c r="A8" s="3">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9">
         <v>44614</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9">
         <v>44795</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="14"/>
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1232,29 +1285,29 @@
       <c r="A10" s="3">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11">
         <v>45242</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="14"/>
+      <c r="G10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1262,29 +1315,29 @@
       <c r="A11" s="3">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
         <v>44958</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="14"/>
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1292,29 +1345,29 @@
       <c r="A12" s="3">
         <v>19</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
         <v>44911</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1322,28 +1375,28 @@
       <c r="A13" s="3">
         <v>24</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
         <v>44986</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="14"/>
+      <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1351,28 +1404,28 @@
       <c r="A14" s="3">
         <v>25</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
         <v>45078</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="14"/>
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1380,29 +1433,29 @@
       <c r="A15" s="3">
         <v>26</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
         <v>45047</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="14"/>
+      <c r="G15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1410,26 +1463,26 @@
       <c r="A16" s="3">
         <v>27</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
         <v>45078</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="14"/>
+      <c r="G16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1437,26 +1490,26 @@
       <c r="A17" s="3">
         <v>28</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
         <v>45078</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="14"/>
+      <c r="G17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1464,27 +1517,27 @@
       <c r="A18" s="3">
         <v>29</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9">
         <v>45108</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="14"/>
+      <c r="G18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1492,27 +1545,27 @@
       <c r="A19" s="3">
         <v>30</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
         <v>45231</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="14"/>
+      <c r="G19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1520,31 +1573,31 @@
       <c r="A20" s="3">
         <v>31</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
         <v>45292</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="14"/>
+      <c r="G20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1552,32 +1605,32 @@
       <c r="A21" s="3">
         <v>32</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9">
         <v>45323</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1585,32 +1638,32 @@
       <c r="A22" s="3">
         <v>33</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9">
         <v>45323</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1618,26 +1671,26 @@
       <c r="A23" s="3">
         <v>34</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9">
         <v>45292</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="14"/>
+      <c r="G23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1645,26 +1698,26 @@
       <c r="A24" s="3">
         <v>35</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="9">
         <v>45261</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="14"/>
+      <c r="G24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="18" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1672,32 +1725,32 @@
       <c r="A25" s="3">
         <v>36</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9">
         <v>45627</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="14"/>
+      <c r="G25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1705,30 +1758,30 @@
       <c r="A26" s="3">
         <v>38</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9">
         <v>45689</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="14"/>
+      <c r="G26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -1737,29 +1790,29 @@
       <c r="A27" s="3">
         <v>39</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9">
         <v>45717</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="14"/>
+      <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1767,168 +1820,168 @@
       <c r="A28" s="3">
         <v>41</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
         <v>45717</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="14"/>
+      <c r="G28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="4"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="154">
+    <row r="29" spans="1:18" ht="70">
       <c r="A29" s="3">
         <v>40</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
         <v>45717</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="409.5">
+    <row r="30" spans="1:18" ht="252">
       <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9">
         <v>35855</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
         <v>108</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="409.5">
+    <row r="31" spans="1:18" ht="266">
       <c r="A31" s="3">
         <v>11</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="9">
         <v>35855</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="409.5">
+    <row r="32" spans="1:18" ht="336">
       <c r="A32" s="3">
         <v>12</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="9">
         <v>35855</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10" t="s">
         <v>116</v>
       </c>
       <c r="Q32" s="4"/>
@@ -1938,25 +1991,25 @@
       <c r="A33" s="3">
         <v>42</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="12">
         <v>45752</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1964,67 +2017,99 @@
       <c r="A34" s="3">
         <v>43</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="12">
         <v>45776</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.6">
+    <row r="35" spans="1:13" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="12">
         <v>45748</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="37.5">
+      <c r="A36" s="3">
+        <v>45</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="12">
+        <v>45748</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
-      <formula1>$T$3:$T$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+      <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2053,6 +2138,70 @@
     <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B85EEB15-25C6-4F11-94B9-0EBCBA316893}">
+          <x14:formula1>
+            <xm:f>options!$B$2:$B$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>G36:J36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2716D-0FAF-4C25-AEB8-0300C775882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F07B1-CAF5-48C3-8E22-8CF15611BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,9 +533,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>02 Job Experience</t>
-  </si>
-  <si>
     <t>QA Software Test Engineering: Java Page Objects</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>Created, edited, and maintained Java-based page object files in Provar to support automated testing of Salesforce functionality, ensuring reusable and maintainable test components aligned with UI changes.</t>
+  </si>
+  <si>
+    <t>02 Work Experience</t>
   </si>
 </sst>
 </file>
@@ -907,10 +907,10 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -980,10 +980,10 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1101,7 +1101,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="280">
@@ -2079,28 +2079,28 @@
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>66</v>
@@ -2169,30 +2169,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3F07B1-CAF5-48C3-8E22-8CF15611BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B398D6-DA44-4B20-9E7F-D62929FE5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
   <si>
     <t>e_id</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>aws</t>
-  </si>
-  <si>
-    <t>genai</t>
   </si>
   <si>
     <t>artificial intelligence</t>
@@ -163,9 +160,6 @@
     <t>Used GPT Builder to create advanced AI Agents. Covered the fundamentals of GPT Builder. Gained a thorough understanding of what GPT Builder is and how it functions as a platform for creating AI agents. Created Technical Support AI Assistant. Developed AI agents that are specialized in providing technical support and assistance.</t>
   </si>
   <si>
-    <t>ai gents</t>
-  </si>
-  <si>
     <t>gen ai</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
   </si>
   <si>
     <t>Web Development</t>
-  </si>
-  <si>
-    <t>XML</t>
   </si>
   <si>
     <t>Lockheed Martin Information Services</t>
@@ -558,6 +549,18 @@
   </si>
   <si>
     <t>02 Work Experience</t>
+  </si>
+  <si>
+    <t>Palantir/Ontologize</t>
+  </si>
+  <si>
+    <t>ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palantir Use Case Engineer Certification - Associate </t>
+  </si>
+  <si>
+    <t>Course focused on applying Palantir Foundry. Included exercises and lab work for end-to-end development of use cases within Foundry, including ontology object types, ingesting and transforming data (ETL - Extract, Transform, Load), building pipeline workflows and designing workshop applications. Demonstrated proficiency in aligning technical implementation with business outcomes, enabling stakeholders to optimize decision-making and data-driven insights</t>
   </si>
 </sst>
 </file>
@@ -904,29 +907,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="66.36328125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="19" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" style="19"/>
-    <col min="9" max="9" width="17.453125" style="19" customWidth="1"/>
-    <col min="10" max="12" width="12.54296875" style="19"/>
-    <col min="13" max="13" width="17.90625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="24.7265625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="19"/>
+    <col min="9" max="9" width="17.42578125" style="19" customWidth="1"/>
+    <col min="10" max="12" width="12.5703125" style="19"/>
+    <col min="13" max="13" width="17.85546875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -973,17 +976,17 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -991,7 +994,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="56">
+    <row r="2" spans="1:26" ht="57">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56">
+    <row r="3" spans="1:26" ht="57">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -1045,26 +1048,26 @@
         <v>24</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="T3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="56">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="57">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1075,10 +1078,10 @@
         <v>45734</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="20">
         <v>2</v>
@@ -1087,24 +1090,24 @@
         <v>24</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="280">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="285">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -1115,26 +1118,26 @@
         <v>35855</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1142,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="98">
+    <row r="6" spans="1:26" ht="114">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -1153,29 +1156,29 @@
         <v>44531</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="T6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="70">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="85.5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1186,25 +1189,25 @@
         <v>45741</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="J7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
@@ -1215,7 +1218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="337.5">
+    <row r="8" spans="1:26" ht="357">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1226,13 +1229,13 @@
         <v>44614</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>24</v>
@@ -1242,13 +1245,13 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1">
@@ -1262,23 +1265,23 @@
         <v>44795</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1">
@@ -1292,23 +1295,23 @@
         <v>45242</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1">
@@ -1322,26 +1325,26 @@
         <v>44958</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="14"/>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="98">
+    </row>
+    <row r="12" spans="1:26" ht="114">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -1352,26 +1355,26 @@
         <v>44911</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="28">
+    </row>
+    <row r="13" spans="1:26" ht="42.75">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -1382,25 +1385,25 @@
         <v>44986</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="114">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -1411,11 +1414,11 @@
         <v>45078</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="14"/>
       <c r="G14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -1423,13 +1426,13 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="98">
+    </row>
+    <row r="15" spans="1:26" ht="114">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -1440,26 +1443,26 @@
         <v>45047</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="14"/>
       <c r="G15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="56">
+    </row>
+    <row r="16" spans="1:26" ht="57">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -1470,23 +1473,23 @@
         <v>45078</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="56">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="57">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -1497,23 +1500,23 @@
         <v>45078</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="14"/>
       <c r="G17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="98">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="114">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -1524,24 +1527,24 @@
         <v>45108</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="14"/>
       <c r="G18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="98">
+    </row>
+    <row r="19" spans="1:18" ht="114">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -1552,24 +1555,24 @@
         <v>45231</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="56">
+    </row>
+    <row r="20" spans="1:18" ht="57">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -1580,28 +1583,28 @@
         <v>45292</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="57">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -1612,29 +1615,29 @@
         <v>45323</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="56">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="57">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -1645,29 +1648,29 @@
         <v>45323</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="56">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="57">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1678,23 +1681,23 @@
         <v>45292</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="14"/>
       <c r="G23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="57">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -1705,23 +1708,23 @@
         <v>45261</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="28.5">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -1732,29 +1735,29 @@
         <v>45627</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="3">
         <v>38</v>
       </c>
@@ -1765,28 +1768,28 @@
         <v>45689</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="112">
+    <row r="27" spans="1:18" ht="114">
       <c r="A27" s="3">
         <v>39</v>
       </c>
@@ -1797,26 +1800,26 @@
         <v>45717</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -1827,23 +1830,23 @@
         <v>45717</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
@@ -1851,7 +1854,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="70">
+    <row r="29" spans="1:18" ht="71.25">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -1862,31 +1865,31 @@
         <v>45717</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="252">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="285">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -1897,29 +1900,29 @@
         <v>35855</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="266">
+    <row r="31" spans="1:18" ht="285">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -1930,31 +1933,31 @@
         <v>35855</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="336">
+    <row r="32" spans="1:18" ht="356.25">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -1965,24 +1968,24 @@
         <v>35855</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -1992,25 +1995,25 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
@@ -2024,25 +2027,25 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="409.5">
@@ -2050,65 +2053,103 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="37.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="I36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="89.25">
+      <c r="A37" s="3">
+        <v>46</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="12">
+        <v>45869</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" s="19" t="s">
+      <c r="M37" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2138,6 +2179,7 @@
     <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2155,53 +2197,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B398D6-DA44-4B20-9E7F-D62929FE5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEF61A-44AA-4672-9A0D-2A73E8A7731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
   <si>
     <t>e_id</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Course focused on applying Palantir Foundry. Included exercises and lab work for end-to-end development of use cases within Foundry, including ontology object types, ingesting and transforming data (ETL - Extract, Transform, Load), building pipeline workflows and designing workshop applications. Demonstrated proficiency in aligning technical implementation with business outcomes, enabling stakeholders to optimize decision-making and data-driven insights</t>
+  </si>
+  <si>
+    <t>https://certifications.ontologize.com/credentials/efdee22a-1550-45b4-a4d3-0e3d51f5555c</t>
   </si>
 </sst>
 </file>
@@ -910,10 +913,10 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1990,7 +1993,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="53.25" customHeight="1">
+    <row r="33" spans="1:14" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.5">
+    <row r="35" spans="1:14" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="38.25">
+    <row r="36" spans="1:14" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="89.25">
+    <row r="37" spans="1:14" ht="89.25">
       <c r="A37" s="3">
         <v>46</v>
       </c>
@@ -2145,6 +2148,9 @@
       </c>
       <c r="M37" s="19" t="s">
         <v>136</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEF61A-44AA-4672-9A0D-2A73E8A7731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C97E6-9C31-4E9E-8CEF-F3087E528C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
   <si>
     <t>e_id</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Artificial Intelligence Consultant Expert</t>
-  </si>
-  <si>
-    <t>https://www.credly.com/earner/earned/badge/db6fe286-ef87-4b83-a647-c0e23ff0c5e7</t>
   </si>
   <si>
     <t>Artificial Intelligence Consultant Practitioner</t>
@@ -565,12 +562,20 @@
   <si>
     <t>https://certifications.ontologize.com/credentials/efdee22a-1550-45b4-a4d3-0e3d51f5555c</t>
   </si>
+  <si>
+    <t>The earner of this badge has gained extensive skill application, knowledge in AI theories and practices, and has completed the AI Practitioner badge.
+&lt;div data-iframe-width="150" data-iframe-height="270" data-share-badge-id="db6fe286-ef87-4b83-a647-c0e23ff0c5e7" data-share-badge-host="https://www.credly.com"&gt;&lt;/div&gt;&lt;script type="text/javascript" async src="//cdn.credly.com/assets/utilities/embed.js"&gt;&lt;/script&gt;
+Skills: AI Concepts, AI Decision Making, Communicating about AI, Data Communication, Data Decision Making, Data Storytelling, Data Visualization, Digital Leadership, Digital Transformation, Generative AI</t>
+  </si>
+  <si>
+    <t>https://www.credly.com/badges/db6fe286-ef87-4b83-a647-c0e23ff0c5e7/public_url</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -608,6 +613,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -626,10 +638,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,8 +705,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -916,7 +933,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -979,17 +996,17 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1067,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="57">
@@ -1107,7 +1124,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="285">
@@ -1178,10 +1195,10 @@
         <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="85.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="71.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1198,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>45</v>
@@ -1235,7 +1252,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>31</v>
@@ -1254,7 +1271,7 @@
         <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1">
@@ -1673,7 +1690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="57">
+    <row r="23" spans="1:18" ht="140.25">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1681,14 +1698,19 @@
         <v>14</v>
       </c>
       <c r="C23" s="9">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1696,8 +1718,8 @@
       <c r="M23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>81</v>
+      <c r="N23" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57">
@@ -1711,7 +1733,7 @@
         <v>45261</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="10" t="s">
@@ -1724,7 +1746,7 @@
         <v>64</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="28.5">
@@ -1738,26 +1760,26 @@
         <v>45627</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="14.25">
@@ -1771,14 +1793,14 @@
         <v>45689</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1803,23 +1825,23 @@
         <v>45717</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="14.25">
@@ -1843,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1868,10 +1890,10 @@
         <v>45717</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>25</v>
@@ -1880,16 +1902,16 @@
         <v>17</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="285">
@@ -1903,14 +1925,14 @@
         <v>35855</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>37</v>
@@ -1920,7 +1942,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -1936,24 +1958,24 @@
         <v>35855</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="4"/>
@@ -1971,24 +1993,24 @@
         <v>35855</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -1998,25 +2020,25 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="G33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
@@ -2030,10 +2052,10 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>25</v>
@@ -2056,25 +2078,25 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="G35" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>64</v>
@@ -2085,28 +2107,28 @@
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>64</v>
@@ -2123,19 +2145,19 @@
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>17</v>
@@ -2144,13 +2166,13 @@
         <v>25</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2228,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2217,25 +2239,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2250,7 +2272,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2260,7 +2282,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2285,7 +2307,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -2305,7 +2327,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -2320,47 +2342,47 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -2375,7 +2397,7 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -2390,7 +2412,7 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C97E6-9C31-4E9E-8CEF-F3087E528C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4805375-E7E8-4D18-8464-A45EED8964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46176" yWindow="12600" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>e_id</t>
   </si>
@@ -563,12 +564,68 @@
     <t>https://certifications.ontologize.com/credentials/efdee22a-1550-45b4-a4d3-0e3d51f5555c</t>
   </si>
   <si>
+    <t>https://www.credly.com/badges/db6fe286-ef87-4b83-a647-c0e23ff0c5e7/public_url</t>
+  </si>
+  <si>
+    <t>34.png</t>
+  </si>
+  <si>
+    <t>category_tier1</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>QA Engineering</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Dev-Ops</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>08 Summary</t>
+  </si>
+  <si>
     <t>The earner of this badge has gained extensive skill application, knowledge in AI theories and practices, and has completed the AI Practitioner badge.
-&lt;div data-iframe-width="150" data-iframe-height="270" data-share-badge-id="db6fe286-ef87-4b83-a647-c0e23ff0c5e7" data-share-badge-host="https://www.credly.com"&gt;&lt;/div&gt;&lt;script type="text/javascript" async src="//cdn.credly.com/assets/utilities/embed.js"&gt;&lt;/script&gt;
+&lt;br/&gt;
+&lt;div data-iframe-width='150' data-iframe-height='270' 
+data-share-badge-id='db6fe286-ef87-4b83-a647-c0e23ff0c5e7' 
+data-share-badge-host='https://www.credly.com'&gt;&lt;/div&gt;
+&lt;script type='text/javascript' 
+async src='//cdn.credly.com/assets/utilities/embed.js'&gt;&lt;/script&gt;
 Skills: AI Concepts, AI Decision Making, Communicating about AI, Data Communication, Data Decision Making, Data Storytelling, Data Visualization, Digital Leadership, Digital Transformation, Generative AI</t>
   </si>
   <si>
-    <t>https://www.credly.com/badges/db6fe286-ef87-4b83-a647-c0e23ff0c5e7/public_url</t>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Video: Resume Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Prefer video to reading?  Watch the resume video here.&lt;/p&gt;
+&lt;video width="320" height="240" controls&gt;
+  &lt;source src="./img/media/The_Explainer_Steve_Dooley.mp4" type="video/mp4"&gt;
+&lt;/video&gt;
+  &lt;source src="your-video.mp4" type="video/mp4"&gt;
+&lt;/video&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -642,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,6 +765,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -927,13 +985,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -998,7 +1056,9 @@
       <c r="O1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
@@ -1047,6 +1107,9 @@
       <c r="N2" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="P2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="57">
       <c r="A3" s="3">
@@ -1083,6 +1146,9 @@
       <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="P3" t="s">
+        <v>145</v>
+      </c>
       <c r="T3" t="s">
         <v>122</v>
       </c>
@@ -1120,7 +1186,9 @@
         <v>32</v>
       </c>
       <c r="O4" s="10"/>
-      <c r="P4" s="4"/>
+      <c r="P4" t="s">
+        <v>145</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" t="s">
@@ -1159,6 +1227,9 @@
       <c r="M5" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="P5" t="s">
+        <v>146</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="T5" s="4" t="s">
@@ -1194,11 +1265,14 @@
       <c r="N6" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P6" t="s">
+        <v>144</v>
+      </c>
       <c r="T6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="71.25">
+    <row r="7" spans="1:26" ht="85.5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1231,7 +1305,9 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="4"/>
+      <c r="P7" t="s">
+        <v>145</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="T7" s="4" t="s">
@@ -1270,6 +1346,9 @@
       <c r="N8" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="P8" t="s">
+        <v>144</v>
+      </c>
       <c r="T8" t="s">
         <v>113</v>
       </c>
@@ -1303,6 +1382,12 @@
       <c r="N9" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="P9" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1">
       <c r="A10" s="3">
@@ -1333,6 +1418,9 @@
       <c r="N10" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1">
       <c r="A11" s="3">
@@ -1363,6 +1451,9 @@
       <c r="N11" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="114">
       <c r="A12" s="3">
@@ -1393,6 +1484,9 @@
       <c r="N12" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="42.75">
       <c r="A13" s="3">
@@ -1422,6 +1516,9 @@
       <c r="N13" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="P13" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="114">
       <c r="A14" s="3">
@@ -1450,6 +1547,9 @@
       </c>
       <c r="N14" s="18" t="s">
         <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="114">
@@ -1481,6 +1581,9 @@
       <c r="N15" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="57">
       <c r="A16" s="3">
@@ -1508,6 +1611,9 @@
       <c r="N16" s="18" t="s">
         <v>65</v>
       </c>
+      <c r="P16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="57">
       <c r="A17" s="3">
@@ -1534,6 +1640,9 @@
       </c>
       <c r="N17" s="18" t="s">
         <v>67</v>
+      </c>
+      <c r="P17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="114">
@@ -1563,6 +1672,9 @@
       <c r="N18" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="114">
       <c r="A19" s="3">
@@ -1591,6 +1703,9 @@
       <c r="N19" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="P19" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="57">
       <c r="A20" s="3">
@@ -1623,6 +1738,9 @@
       <c r="N20" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="P20" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="57">
       <c r="A21" s="3">
@@ -1656,6 +1774,9 @@
       <c r="N21" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="P21" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="57">
       <c r="A22" s="3">
@@ -1689,8 +1810,11 @@
       <c r="N22" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="140.25">
+      <c r="P22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="178.5">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1704,7 +1828,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
@@ -1719,7 +1843,13 @@
         <v>64</v>
       </c>
       <c r="N23" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>141</v>
+      </c>
+      <c r="P23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57">
@@ -1748,6 +1878,9 @@
       <c r="N24" s="18" t="s">
         <v>82</v>
       </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="28.5">
       <c r="A25" s="3">
@@ -1780,6 +1913,9 @@
       </c>
       <c r="N25" s="18" t="s">
         <v>88</v>
+      </c>
+      <c r="P25" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="14.25">
@@ -1810,7 +1946,9 @@
         <v>64</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="P26" s="4"/>
+      <c r="P26" t="s">
+        <v>146</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
@@ -1843,6 +1981,9 @@
       <c r="N27" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="P27" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="3">
@@ -1875,7 +2016,9 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="4"/>
+      <c r="P28" t="s">
+        <v>145</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
@@ -1912,6 +2055,9 @@
       </c>
       <c r="N29" s="18" t="s">
         <v>100</v>
+      </c>
+      <c r="P29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="285">
@@ -1977,8 +2123,9 @@
       <c r="M31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
@@ -2012,10 +2159,13 @@
       <c r="M32" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="P32" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="53.25" customHeight="1">
+    <row r="33" spans="1:16" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2040,8 +2190,11 @@
       <c r="M33" s="22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+      <c r="P33" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2072,8 +2225,12 @@
       <c r="M34" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="409.5">
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2101,8 +2258,11 @@
       <c r="M35" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="38.25">
+      <c r="P35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2133,8 +2293,11 @@
       <c r="M36" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="89.25">
+      <c r="P36" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="89.25">
       <c r="A37" s="3">
         <v>46</v>
       </c>
@@ -2174,10 +2337,36 @@
       <c r="N37" s="14" t="s">
         <v>139</v>
       </c>
+      <c r="P37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="127.5" customHeight="1">
+      <c r="A38" s="3">
+        <v>47</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="12">
+        <v>45893</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1">
+      <c r="P40" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4805375-E7E8-4D18-8464-A45EED8964D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A1D209-037F-484B-82E0-B4A8150334C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46176" yWindow="12600" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
   <si>
     <t>e_id</t>
   </si>
@@ -626,6 +625,9 @@
   &lt;source src="your-video.mp4" type="video/mp4"&gt;
 &lt;/video&gt;
 </t>
+  </si>
+  <si>
+    <t>sort_order</t>
   </si>
 </sst>
 </file>
@@ -988,10 +990,10 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1059,7 +1061,9 @@
       <c r="P1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
@@ -2165,7 +2169,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="53.25" customHeight="1">
+    <row r="33" spans="1:17" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="409.5">
+    <row r="35" spans="1:17" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="38.25">
+    <row r="36" spans="1:17" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="89.25">
+    <row r="37" spans="1:17" ht="89.25">
       <c r="A37" s="3">
         <v>46</v>
       </c>
@@ -2340,8 +2344,11 @@
       <c r="P37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="127.5" customHeight="1">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="127.5" customHeight="1">
       <c r="A38" s="3">
         <v>47</v>
       </c>
@@ -2360,8 +2367,11 @@
       <c r="P38" s="25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="P40" s="25"/>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A1D209-037F-484B-82E0-B4A8150334C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1AFE9F-47A5-4C07-8DE1-0E9B70561A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
   <si>
     <t>e_id</t>
   </si>
@@ -148,9 +161,6 @@
     <t>salesforce</t>
   </si>
   <si>
-    <t>Salesforce, Inc.</t>
-  </si>
-  <si>
     <t>https://trailhead.salesforce.com/en/credentials/certification-detail-print/?searchString=HYpyqtK1B3UvgIxnNWudps5Mb3QeDqBMqF6iJ42nfUngdklggpCgIot+RVM7HBbU</t>
   </si>
   <si>
@@ -320,9 +330,6 @@
   </si>
   <si>
     <t>palantir</t>
-  </si>
-  <si>
-    <t>Palantir Technologies</t>
   </si>
   <si>
     <t>https://verify.skilljar.com/c/qqd37dwdh989</t>
@@ -548,9 +555,6 @@
     <t>02 Work Experience</t>
   </si>
   <si>
-    <t>Palantir/Ontologize</t>
-  </si>
-  <si>
     <t>ontology</t>
   </si>
   <si>
@@ -602,32 +606,27 @@
     <t>08 Summary</t>
   </si>
   <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Video: Resume Summary</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>[inc]</t>
+  </si>
+  <si>
+    <t>Palantir</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
     <t>The earner of this badge has gained extensive skill application, knowledge in AI theories and practices, and has completed the AI Practitioner badge.
-&lt;br/&gt;
-&lt;div data-iframe-width='150' data-iframe-height='270' 
-data-share-badge-id='db6fe286-ef87-4b83-a647-c0e23ff0c5e7' 
-data-share-badge-host='https://www.credly.com'&gt;&lt;/div&gt;
-&lt;script type='text/javascript' 
-async src='//cdn.credly.com/assets/utilities/embed.js'&gt;&lt;/script&gt;
+&lt;br/&gt;&lt;br/&gt;
 Skills: AI Concepts, AI Decision Making, Communicating about AI, Data Communication, Data Decision Making, Data Storytelling, Data Visualization, Digital Leadership, Digital Transformation, Generative AI</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Video: Resume Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Prefer video to reading?  Watch the resume video here.&lt;/p&gt;
-&lt;video width="320" height="240" controls&gt;
-  &lt;source src="./img/media/The_Explainer_Steve_Dooley.mp4" type="video/mp4"&gt;
-&lt;/video&gt;
-  &lt;source src="your-video.mp4" type="video/mp4"&gt;
-&lt;/video&gt;
-</t>
-  </si>
-  <si>
-    <t>sort_order</t>
   </si>
 </sst>
 </file>
@@ -989,11 +988,11 @@
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1056,21 +1055,21 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1112,7 +1111,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="57">
@@ -1135,7 +1134,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>25</v>
@@ -1151,10 +1150,10 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="57">
@@ -1191,12 +1190,12 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="285">
@@ -1232,7 +1231,7 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1264,19 +1263,19 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="85.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="71.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1287,19 +1286,19 @@
         <v>45741</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>25</v>
@@ -1310,7 +1309,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1329,10 +1328,10 @@
         <v>44614</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>31</v>
@@ -1345,16 +1344,16 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1">
@@ -1368,29 +1367,29 @@
         <v>44795</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1">
@@ -1404,7 +1403,7 @@
         <v>45242</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="10" t="s">
@@ -1417,13 +1416,13 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1">
@@ -1437,7 +1436,7 @@
         <v>44958</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="14"/>
       <c r="G11" s="10" t="s">
@@ -1450,13 +1449,13 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="114">
@@ -1470,7 +1469,7 @@
         <v>44911</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="10" t="s">
@@ -1483,13 +1482,13 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="42.75">
@@ -1503,25 +1502,25 @@
         <v>44986</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="114">
@@ -1535,7 +1534,7 @@
         <v>45078</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="14"/>
       <c r="G14" s="10" t="s">
@@ -1547,13 +1546,13 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="114">
@@ -1567,7 +1566,7 @@
         <v>45047</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="14"/>
       <c r="G15" s="10" t="s">
@@ -1580,13 +1579,13 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="57">
@@ -1600,7 +1599,7 @@
         <v>45078</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="10" t="s">
@@ -1610,13 +1609,13 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57">
@@ -1630,7 +1629,7 @@
         <v>45078</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="14"/>
       <c r="G17" s="10" t="s">
@@ -1640,13 +1639,13 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="114">
@@ -1660,7 +1659,7 @@
         <v>45108</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="14"/>
       <c r="G18" s="10" t="s">
@@ -1671,13 +1670,13 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="114">
@@ -1691,7 +1690,7 @@
         <v>45231</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="10" t="s">
@@ -1702,13 +1701,13 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="57">
@@ -1722,14 +1721,14 @@
         <v>45292</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>35</v>
@@ -1737,13 +1736,13 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="57">
@@ -1757,15 +1756,15 @@
         <v>45323</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>35</v>
@@ -1773,13 +1772,13 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="57">
@@ -1793,15 +1792,15 @@
         <v>45323</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>35</v>
@@ -1809,16 +1808,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="178.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="102">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1829,31 +1828,31 @@
         <v>45293</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57">
@@ -1867,7 +1866,7 @@
         <v>45261</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="10" t="s">
@@ -1877,13 +1876,13 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="28.5">
@@ -1897,29 +1896,29 @@
         <v>45627</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="14"/>
       <c r="G25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N25" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="14.25">
@@ -1933,25 +1932,25 @@
         <v>45689</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -1967,26 +1966,26 @@
         <v>45717</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="14"/>
       <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="14.25">
@@ -2000,17 +1999,17 @@
         <v>45717</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2021,7 +2020,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -2037,10 +2036,10 @@
         <v>45717</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>25</v>
@@ -2049,19 +2048,19 @@
         <v>17</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="10" t="s">
-        <v>99</v>
+      <c r="M29" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="285">
@@ -2075,14 +2074,14 @@
         <v>35855</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>37</v>
@@ -2092,7 +2091,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2108,27 +2107,27 @@
         <v>35855</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2144,27 +2143,27 @@
         <v>35855</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2174,28 +2173,28 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="P33" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
@@ -2209,10 +2208,10 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>25</v>
@@ -2227,11 +2226,11 @@
         <v>40</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="409.5">
@@ -2239,31 +2238,31 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="38.25">
@@ -2271,34 +2270,34 @@
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="J36" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="M36" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="89.25">
@@ -2312,19 +2311,19 @@
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>17</v>
@@ -2333,16 +2332,16 @@
         <v>25</v>
       </c>
       <c r="K37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="M37" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2353,19 +2352,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="12">
         <v>45893</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2438,25 +2440,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2466,12 +2468,12 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2481,7 +2483,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2491,7 +2493,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -2506,17 +2508,17 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2526,12 +2528,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -2541,47 +2543,47 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -2591,27 +2593,27 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1AFE9F-47A5-4C07-8DE1-0E9B70561A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025BE80-915C-40B0-B023-533F0C37CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="156">
   <si>
     <t>e_id</t>
   </si>
@@ -570,9 +570,6 @@
     <t>https://www.credly.com/badges/db6fe286-ef87-4b83-a647-c0e23ff0c5e7/public_url</t>
   </si>
   <si>
-    <t>34.png</t>
-  </si>
-  <si>
     <t>category_tier1</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>Dev-Ops</t>
   </si>
   <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
     <t>Data Engineering</t>
   </si>
   <si>
@@ -624,9 +618,10 @@
     <t>Salesforce</t>
   </si>
   <si>
-    <t>The earner of this badge has gained extensive skill application, knowledge in AI theories and practices, and has completed the AI Practitioner badge.
-&lt;br/&gt;&lt;br/&gt;
-Skills: AI Concepts, AI Decision Making, Communicating about AI, Data Communication, Data Decision Making, Data Storytelling, Data Visualization, Digital Leadership, Digital Transformation, Generative AI</t>
+    <t>icon_item</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -986,13 +981,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1001,7 +996,7 @@
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="19"/>
     <col min="9" max="9" width="17.42578125" style="19" customWidth="1"/>
@@ -1009,9 +1004,10 @@
     <col min="13" max="13" width="17.85546875" style="19" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="14" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="19" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1058,26 +1054,29 @@
         <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="57">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="85.5">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -1111,10 +1110,13 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="57">
+        <v>139</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="99.75">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -1150,13 +1152,16 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
-      </c>
-      <c r="T3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="57">
+    <row r="4" spans="1:27" ht="57">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1190,15 +1195,18 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>141</v>
+      </c>
       <c r="R4" s="4"/>
-      <c r="T4" t="s">
+      <c r="S4" s="4"/>
+      <c r="U4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="285">
+    <row r="5" spans="1:27" ht="409.5">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -1231,15 +1239,18 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>142</v>
+      </c>
       <c r="R5" s="4"/>
-      <c r="T5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="114">
+      <c r="S5" s="4"/>
+      <c r="U5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="114">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -1263,19 +1274,22 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="71.25">
+    <row r="7" spans="1:27" ht="114">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1309,15 +1323,18 @@
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
       <c r="P7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>141</v>
+      </c>
       <c r="R7" s="4"/>
-      <c r="T7" s="4" t="s">
+      <c r="S7" s="4"/>
+      <c r="U7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="357">
+    <row r="8" spans="1:27" ht="409.5">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1350,13 +1367,16 @@
         <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1">
+    <row r="9" spans="1:27" ht="30" customHeight="1">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1386,13 +1406,16 @@
         <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30" customHeight="1">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -1416,16 +1439,19 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="30" customHeight="1">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1449,16 +1475,19 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="114">
+        <v>140</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="114">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -1482,16 +1511,19 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="42.75">
+        <v>140</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="42.75">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -1520,10 +1552,13 @@
         <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="114">
+        <v>145</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="114">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -1546,16 +1581,19 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="114">
+        <v>139</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="114">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -1579,16 +1617,19 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="57">
+        <v>140</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="57">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -1615,10 +1656,13 @@
         <v>64</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57">
+        <v>141</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="57">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -1645,10 +1689,13 @@
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="114">
+        <v>141</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="114">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -1670,16 +1717,19 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="114">
+        <v>140</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="114">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -1701,16 +1751,19 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="57">
+        <v>140</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="57">
       <c r="A20" s="3">
         <v>31</v>
       </c>
@@ -1742,10 +1795,13 @@
         <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="57">
+        <v>142</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="57">
       <c r="A21" s="3">
         <v>32</v>
       </c>
@@ -1778,10 +1834,13 @@
         <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="57">
+        <v>142</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="57">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -1814,10 +1873,13 @@
         <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="102">
+        <v>142</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="51">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -1831,7 +1893,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
@@ -1848,14 +1910,14 @@
       <c r="N23" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="P23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="57">
+        <v>141</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="57">
       <c r="A24" s="3">
         <v>35</v>
       </c>
@@ -1882,10 +1944,13 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="28.5">
+        <v>141</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.5">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -1918,10 +1983,13 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="14.25">
+        <v>143</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="14.25">
       <c r="A26" s="3">
         <v>38</v>
       </c>
@@ -1950,12 +2018,15 @@
       </c>
       <c r="O26" s="10"/>
       <c r="P26" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>142</v>
+      </c>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="114">
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" ht="114">
       <c r="A27" s="3">
         <v>39</v>
       </c>
@@ -1985,10 +2056,13 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="14.25">
+        <v>146</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="14.25">
       <c r="A28" s="3">
         <v>41</v>
       </c>
@@ -2020,12 +2094,15 @@
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
       <c r="P28" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q28" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>141</v>
+      </c>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="71.25">
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" ht="114">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -2054,16 +2131,19 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N29" s="18" t="s">
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="285">
+        <v>141</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="399">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -2093,10 +2173,18 @@
       <c r="M30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="285">
+      <c r="P30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>142</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" ht="409.5">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -2127,12 +2215,15 @@
         <v>106</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q31" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="356.25">
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" ht="409.5">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -2165,10 +2256,13 @@
       <c r="P32" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="53.25" customHeight="1">
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2194,10 +2288,13 @@
         <v>114</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2230,10 +2327,13 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="409.5">
+        <v>141</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2262,10 +2362,13 @@
         <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="38.25">
+        <v>146</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="63.75">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2297,10 +2400,13 @@
         <v>63</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="89.25">
+        <v>143</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="127.5">
       <c r="A37" s="3">
         <v>46</v>
       </c>
@@ -2335,19 +2441,22 @@
         <v>133</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>136</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q37">
+        <v>141</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>141</v>
+      </c>
+      <c r="R37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="127.5" customHeight="1">
+    <row r="38" spans="1:18" ht="127.5" customHeight="1">
       <c r="A38" s="3">
         <v>47</v>
       </c>
@@ -2358,28 +2467,32 @@
         <v>45893</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>153</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38">
+      <c r="P38" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R38">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1">
       <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
-      <formula1>$T$3:$T$8</formula1>
+      <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025BE80-915C-40B0-B023-533F0C37CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1719794-E7F8-49EA-9B6D-15ACCBC5C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="161">
   <si>
     <t>e_id</t>
   </si>
@@ -622,6 +622,21 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>09/05.2025</t>
+  </si>
+  <si>
+    <t>Flosum</t>
+  </si>
+  <si>
+    <t>dev-ops</t>
+  </si>
+  <si>
+    <t>https://flosumbiz.my.salesforce.com/sfc/p/#/1a000000YDSU/a/QQ000004BMm5/.otlzn7dqfHaDISBNAPEu1zHo4T1Y4FhYly5mEHVX9A</t>
+  </si>
+  <si>
+    <t>Flosum Certified Professional</t>
   </si>
 </sst>
 </file>
@@ -984,10 +999,10 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1076,7 +1091,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="85.5">
+    <row r="2" spans="1:27" ht="99.75">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -2485,13 +2500,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A39" s="3">
+        <v>48</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="19">
+        <v>2</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1">
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2527,7 +2583,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B85EEB15-25C6-4F11-94B9-0EBCBA316893}">
           <x14:formula1>
-            <xm:f>options!$B$2:$B$101</xm:f>
+            <xm:f>options!$B$2:$B$102</xm:f>
           </x14:formula1>
           <xm:sqref>G36:J36</xm:sqref>
         </x14:dataValidation>
@@ -2539,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2626,111 +2682,116 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
     </row>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1719794-E7F8-49EA-9B6D-15ACCBC5C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A63BDE-0E38-434B-9D7B-B934D09B90E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="162">
   <si>
     <t>e_id</t>
   </si>
@@ -624,9 +624,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>09/05.2025</t>
-  </si>
-  <si>
     <t>Flosum</t>
   </si>
   <si>
@@ -637,6 +634,12 @@
   </si>
   <si>
     <t>Flosum Certified Professional</t>
+  </si>
+  <si>
+    <t>Cloud Computing Essentials</t>
+  </si>
+  <si>
+    <t>https://www.credly.com/badges/1627b875-7415-4813-b2b2-6930d22cc53f/public_url</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1010,7 +1013,7 @@
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="19"/>
@@ -2507,11 +2510,11 @@
       <c r="B39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>156</v>
+      <c r="C39" s="12">
+        <v>45905</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>151</v>
@@ -2519,20 +2522,20 @@
       <c r="F39" s="19">
         <v>2</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>153</v>
+      <c r="G39" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39" t="s">
         <v>57</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P39" t="s">
         <v>140</v>
@@ -2542,12 +2545,43 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1">
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
+      <c r="A40" s="3">
+        <v>49</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45908</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2575,9 +2609,10 @@
     <hyperlink ref="N25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="N27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N40" r:id="rId24" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2598,7 +2633,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2682,7 +2717,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A63BDE-0E38-434B-9D7B-B934D09B90E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457C018-BD67-4E03-82BD-851EA8D292E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45180" yWindow="900" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="165">
   <si>
     <t>e_id</t>
   </si>
@@ -505,9 +505,6 @@
     <t>palantirFoundry</t>
   </si>
   <si>
-    <t>01 Award</t>
-  </si>
-  <si>
     <t>05 Feedback</t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>Data Engineering</t>
   </si>
   <si>
-    <t>08 Summary</t>
-  </si>
-  <si>
     <t>Video</t>
   </si>
   <si>
@@ -640,13 +634,28 @@
   </si>
   <si>
     <t>https://www.credly.com/badges/1627b875-7415-4813-b2b2-6930d22cc53f/public_url</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Professional Overview</t>
+  </si>
+  <si>
+    <t>08 Award</t>
+  </si>
+  <si>
+    <t>01 Featured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +700,21 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,6 +804,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -999,22 +1040,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="19"/>
     <col min="9" max="9" width="17.42578125" style="19" customWidth="1"/>
@@ -1069,24 +1110,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S1" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1094,7 +1137,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="99.75">
+    <row r="2" spans="1:27" ht="57">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -1128,13 +1171,13 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="99.75">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="57">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -1170,16 +1213,16 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="57">
+        <v>140</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="28.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1213,18 +1256,18 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="U4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="409.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="285">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -1257,10 +1300,10 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1292,22 +1335,22 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="114">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="71.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1341,10 +1384,10 @@
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1352,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="409.5">
+    <row r="8" spans="1:27" ht="344.25">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1366,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>31</v>
@@ -1385,10 +1428,10 @@
         <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s">
         <v>111</v>
@@ -1424,13 +1467,13 @@
         <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
@@ -1457,16 +1500,16 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1">
@@ -1493,16 +1536,16 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="114">
@@ -1529,16 +1572,16 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="42.75">
@@ -1570,10 +1613,10 @@
         <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="114">
@@ -1599,16 +1642,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="114">
@@ -1635,16 +1678,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="57">
@@ -1674,10 +1717,10 @@
         <v>64</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="57">
@@ -1707,10 +1750,10 @@
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="114">
@@ -1735,16 +1778,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="114">
@@ -1769,16 +1812,16 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="57">
@@ -1813,10 +1856,10 @@
         <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="57">
@@ -1852,10 +1895,10 @@
         <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="57">
@@ -1891,10 +1934,10 @@
         <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="51">
@@ -1911,7 +1954,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
@@ -1926,13 +1969,13 @@
         <v>63</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="57">
@@ -1962,10 +2005,10 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5">
@@ -2001,10 +2044,10 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25">
@@ -2012,7 +2055,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="C26" s="9">
         <v>45689</v>
@@ -2036,10 +2079,10 @@
       </c>
       <c r="O26" s="10"/>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -2049,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="C27" s="9">
         <v>45717</v>
@@ -2074,10 +2117,10 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25">
@@ -2112,20 +2155,20 @@
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="114">
+    <row r="29" spans="1:19" ht="71.25">
       <c r="A29" s="3">
         <v>40</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>14</v>
+      <c r="B29" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C29" s="9">
         <v>45717</v>
@@ -2149,19 +2192,19 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N29" s="18" t="s">
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="399">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="256.5">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -2192,17 +2235,17 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R30" s="4">
         <v>2</v>
       </c>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="409.5">
+    <row r="31" spans="1:19" ht="270.75">
       <c r="A31" s="3">
         <v>11</v>
       </c>
@@ -2233,15 +2276,15 @@
         <v>106</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="409.5">
+    <row r="32" spans="1:19" ht="342">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -2280,7 +2323,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.25" customHeight="1">
+    <row r="33" spans="1:19" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2306,13 +2349,13 @@
         <v>114</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2345,18 +2388,18 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="409.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="409.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>111</v>
+      <c r="B35" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
@@ -2380,68 +2423,68 @@
         <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="63.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="127.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="76.5">
       <c r="A37" s="3">
         <v>46</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>14</v>
+      <c r="B37" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>135</v>
-      </c>
       <c r="F37" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>97</v>
@@ -2456,54 +2499,55 @@
         <v>25</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="127.5" customHeight="1">
-      <c r="A38" s="3">
-        <v>47</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="127.5" customHeight="1">
+      <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="12">
         <v>45893</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>48</v>
       </c>
@@ -2514,10 +2558,10 @@
         <v>45905</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F39" s="19">
         <v>2</v>
@@ -2526,25 +2570,25 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
         <v>57</v>
       </c>
       <c r="M39" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1">
       <c r="A40" s="3">
         <v>49</v>
       </c>
@@ -2555,10 +2599,10 @@
         <v>45908</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>31</v>
@@ -2570,18 +2614,58 @@
         <v>63</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="26">
+        <v>50</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="28">
+        <v>45910</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="31"/>
+      <c r="O41" s="30"/>
+      <c r="P41" t="s">
         <v>140</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q41" t="s">
         <v>140</v>
+      </c>
+      <c r="R41" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B40 B2:B28 B30:B34 B36" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2644,25 +2728,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2717,7 +2801,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -2737,7 +2821,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -2772,7 +2856,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -2787,12 +2871,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457C018-BD67-4E03-82BD-851EA8D292E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF4332-C44C-4B72-ABDF-E7D6FB2F6F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45180" yWindow="900" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="163">
   <si>
     <t>e_id</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>Palantir Foundry &amp; AIP (Artificial Intelligence Platform) Builder Foundations</t>
-  </si>
-  <si>
-    <t>Built a fully-functional end-to-end workflow with Palantir Foundry components. This was a simple operational tool for a demo fulfillment department that connected to two IT systems. It created a single location for managers to assign orders, show what orders hadn't been assigned, and what was at risk of not being delivered.</t>
   </si>
   <si>
     <t>palantir</t>
@@ -455,51 +452,6 @@
   </si>
   <si>
     <t>Case Study: Salesforce / Palantir Colab</t>
-  </si>
-  <si>
-    <t>&lt;!-- Palantir Foundry × Salesforce Integration Overview --&gt;
-&lt;p&gt;&lt;strong&gt;Palantir Foundry × Salesforce Integration Overview&lt;/strong&gt;&lt;br&gt;
-Palantir Foundry ships with a &lt;strong&gt;native Salesforce connector&lt;/strong&gt; that syncs Salesforce data (standard and custom objects) into Foundry datasets for exploration and analysis. The connector auto-discovers object schemas, maps Salesforce API types to Foundry field types, and supports high-volume &lt;em&gt;bulk&lt;/em&gt; imports.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;Connects to &lt;strong&gt;production or sandbox&lt;/strong&gt; orgs&lt;/li&gt;
-  &lt;li&gt;Secure authentication via &lt;strong&gt;OAuth 2.0 (JWT or username + password)&lt;/strong&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Auto-models&lt;/strong&gt; Salesforce objects as Foundry datasets (browse/preview before import)&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Bulk import&lt;/strong&gt; GA — &lt;em&gt;export back to Salesforce is not built in&lt;/em&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Technical Setup Highlights&lt;/strong&gt;&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;Create a &lt;strong&gt;Salesforce Connected App&lt;/strong&gt; with OAuth scope &lt;code&gt;api&lt;/code&gt;&lt;/li&gt;
-  &lt;li&gt;Auth options: certificate (PFX, Base64) or OAuth client/secret&lt;/li&gt;
-  &lt;li&gt;Ensure network/firewall rules allow Foundry → Salesforce (avoid &lt;code&gt;UnknownHostException&lt;/code&gt;)&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Upgrade&lt;/strong&gt; legacy connector versions for full support &amp;amp; fixes&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Use Cases&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Data Sync &amp;amp; Enrichment&lt;/em&gt;&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;Pull CRM data into Foundry for advanced analytics / AI models&lt;/li&gt;
-  &lt;li&gt;Enrich Salesforce records with ERP, finance, or other enterprise data already in Foundry&lt;/li&gt;
-  &lt;li&gt;Provide a 360° customer view blending Salesforce &amp;amp; external sources&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&lt;em&gt;Automation &amp;amp; AI-Driven Support&lt;/em&gt;&lt;br&gt;
-Palantir deploys &lt;strong&gt;AI customer-service engines&lt;/strong&gt; that query Salesforce plus SAP/UPS/ERP data to accelerate and improve case resolution.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Security Review Acceleration&lt;/em&gt;&lt;br&gt;
-Link security docs stored in Foundry to &lt;strong&gt;Salesforce-managed sales cycles&lt;/strong&gt;, giving buyers self-service access to required documentation.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Enterprise-Scale Integration&lt;/em&gt;&lt;br&gt;
-Large-scale roll-outs alongside Workday, Concur, NetSuite, Oracle, Coupa using &lt;strong&gt;MuleSoft&lt;/strong&gt; and agile methods to 10× integration throughput.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; Workarounds&lt;/strong&gt;&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;&lt;strong&gt;No native export&lt;/strong&gt; → use Python transforms or ELT tools (e.g., Hightouch) to push data back&lt;/li&gt;
-  &lt;li&gt;Missing OAuth scopes block access — double-check Connected App permissions&lt;/li&gt;
-  &lt;li&gt;Misconfigured trusted IPs / firewalls break connectivity&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Conceptual Flow&lt;/strong&gt;&lt;/p&gt;
-&lt;ol&gt;
-  &lt;li&gt;&lt;strong&gt;Setup&lt;/strong&gt; — create Connected App (scope &lt;code&gt;api&lt;/code&gt;), configure connector with OAuth creds / cert&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Import&lt;/strong&gt; — bulk-load objects (Leads, Accounts, Opportunities) into Foundry datasets&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Enrich / Analyze&lt;/strong&gt; — join with other data sources → analytics, AI training, dashboards&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;(Optional) Sync Back&lt;/strong&gt; — external tool / custom Python pushes enriched data to Salesforce&lt;/li&gt;
-&lt;/ol&gt;</t>
   </si>
   <si>
     <t>palantirFoundry</t>
@@ -1043,10 +995,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1110,26 +1062,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1171,10 +1123,10 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="57">
@@ -1213,13 +1165,13 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="28.5">
@@ -1256,15 +1208,15 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="U4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="285">
@@ -1300,10 +1252,10 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1335,19 +1287,19 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="71.25">
@@ -1384,10 +1336,10 @@
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1409,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>31</v>
@@ -1428,13 +1380,13 @@
         <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1">
@@ -1467,13 +1419,13 @@
         <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
@@ -1500,16 +1452,16 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1">
@@ -1536,16 +1488,16 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="114">
@@ -1572,16 +1524,16 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="42.75">
@@ -1613,10 +1565,10 @@
         <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="114">
@@ -1642,16 +1594,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="114">
@@ -1678,16 +1630,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="57">
@@ -1717,10 +1669,10 @@
         <v>64</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="57">
@@ -1750,10 +1702,10 @@
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="114">
@@ -1778,16 +1730,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="114">
@@ -1812,16 +1764,16 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="57">
@@ -1856,10 +1808,10 @@
         <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="57">
@@ -1895,10 +1847,10 @@
         <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="57">
@@ -1934,10 +1886,10 @@
         <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="51">
@@ -1954,7 +1906,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>25</v>
@@ -1969,13 +1921,13 @@
         <v>63</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="57">
@@ -2005,10 +1957,10 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.5">
@@ -2044,10 +1996,10 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25">
@@ -2055,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="9">
         <v>45689</v>
@@ -2063,7 +2015,9 @@
       <c r="D26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="10" t="s">
         <v>70</v>
       </c>
@@ -2079,10 +2033,10 @@
       </c>
       <c r="O26" s="10"/>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -2092,7 +2046,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="9">
         <v>45717</v>
@@ -2100,7 +2054,9 @@
       <c r="D27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
@@ -2117,10 +2073,10 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25">
@@ -2155,20 +2111,20 @@
       <c r="N28" s="8"/>
       <c r="O28" s="10"/>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="71.25">
+    <row r="29" spans="1:19" ht="42.75">
       <c r="A29" s="3">
         <v>40</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="9">
         <v>45717</v>
@@ -2177,7 +2133,7 @@
         <v>95</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>25</v>
@@ -2186,22 +2142,22 @@
         <v>17</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="256.5">
@@ -2215,14 +2171,14 @@
         <v>35855</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>37</v>
@@ -2232,13 +2188,13 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R30" s="4">
         <v>2</v>
@@ -2256,30 +2212,30 @@
         <v>35855</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2295,30 +2251,30 @@
         <v>35855</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2328,16 +2284,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>83</v>
@@ -2346,13 +2302,13 @@
         <v>84</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
@@ -2366,10 +2322,10 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>25</v>
@@ -2388,45 +2344,45 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="409.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="25.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="38.25">
@@ -2434,37 +2390,37 @@
         <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="C36" s="12">
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="J36" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="76.5">
@@ -2472,25 +2428,25 @@
         <v>46</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>17</v>
@@ -2499,19 +2455,19 @@
         <v>25</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -2520,31 +2476,31 @@
     <row r="38" spans="1:19" ht="127.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="12">
         <v>45893</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>149</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1">
@@ -2558,10 +2514,10 @@
         <v>45905</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="19">
         <v>2</v>
@@ -2570,22 +2526,22 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
         <v>57</v>
       </c>
       <c r="M39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="N39" s="14" t="s">
-        <v>156</v>
-      </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1">
@@ -2599,10 +2555,10 @@
         <v>45908</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>31</v>
@@ -2614,13 +2570,13 @@
         <v>63</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2628,16 +2584,16 @@
         <v>50</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="28">
         <v>45910</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F41" s="30">
         <v>1</v>
@@ -2654,10 +2610,10 @@
       <c r="N41" s="31"/>
       <c r="O41" s="30"/>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R41" s="27">
         <v>1</v>
@@ -2728,25 +2684,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2801,7 +2757,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -2821,7 +2777,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -2836,17 +2792,17 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -2856,7 +2812,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -2871,12 +2827,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -2891,7 +2847,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -2906,7 +2862,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF4332-C44C-4B72-ABDF-E7D6FB2F6F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A5EDF-4942-4BE3-A3FA-4E788ABEAC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45180" yWindow="900" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
+    <sheet name="backup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>e_id</t>
   </si>
@@ -992,13 +993,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2279,7 +2280,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="53.25" customHeight="1">
+    <row r="33" spans="1:18" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="25.5">
+    <row r="35" spans="1:18" ht="25.5">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="38.25">
+    <row r="36" spans="1:18" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="76.5">
+    <row r="37" spans="1:18" ht="76.5">
       <c r="A37" s="3">
         <v>46</v>
       </c>
@@ -2473,69 +2474,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="127.5" customHeight="1">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A38" s="3">
+        <v>48</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C38" s="12">
-        <v>45893</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="21" t="s">
+        <v>45905</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>147</v>
       </c>
+      <c r="F38" s="19">
+        <v>2</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
       <c r="M38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q38" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1">
       <c r="A39" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="12">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="19">
-        <v>2</v>
-      </c>
       <c r="G39" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>154</v>
+        <v>63</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="P39" t="s">
         <v>137</v>
@@ -2544,84 +2550,49 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>49</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="12">
-        <v>45908</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="14" t="s">
+    <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="26">
+        <v>50</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="28">
+        <v>45910</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>157</v>
-      </c>
+      <c r="N40" s="31"/>
+      <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="26">
-        <v>50</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="28">
-        <v>45910</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="30">
-        <v>1</v>
-      </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N41" s="31"/>
-      <c r="O41" s="30"/>
-      <c r="P41" t="s">
         <v>138</v>
       </c>
-      <c r="Q41" t="s">
-        <v>138</v>
-      </c>
-      <c r="R41" s="27">
+      <c r="R40" s="27">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B40 B2:B28 B30:B34 B36" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B39 B36 B30:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2649,7 +2620,7 @@
     <hyperlink ref="N25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="N27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N40" r:id="rId24" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
+    <hyperlink ref="N39" r:id="rId24" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
@@ -2876,6 +2847,136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2167C5F1-BCD5-4AA1-91A5-CE81E1C5308E}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="127.5" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45893</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+      <formula1>$U$3:$U$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{3de9faa6-9fe1-49b3-9a08-227a296b54a6}" enabled="1" method="Privileged" siteId="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" contentBits="0" removed="0"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A5EDF-4942-4BE3-A3FA-4E788ABEAC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F68334-0E3E-4B65-989F-A0458FCFC7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45180" yWindow="900" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="167">
   <si>
     <t>e_id</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>01 Featured</t>
+  </si>
+  <si>
+    <t>JavaScript / TypeScript Class</t>
+  </si>
+  <si>
+    <t>typescript</t>
+  </si>
+  <si>
+    <t>Stony Point Inc</t>
+  </si>
+  <si>
+    <t>https://www.stonyp.com/class-type/Salesforce/Developing-Lightning-Web-Components</t>
   </si>
 </sst>
 </file>
@@ -993,13 +1005,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1782,7 +1794,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C20" s="9">
         <v>45292</v>
@@ -2136,6 +2148,9 @@
       <c r="E29" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
       <c r="G29" s="10" t="s">
         <v>25</v>
       </c>
@@ -2366,6 +2381,9 @@
       </c>
       <c r="E35" s="21" t="s">
         <v>147</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>96</v>
@@ -2588,6 +2606,47 @@
       </c>
       <c r="R40" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A41" s="3">
+        <v>51</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="12">
+        <v>45352</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="19">
+        <v>3</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F68334-0E3E-4B65-989F-A0458FCFC7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52968A64-2E9C-4751-844E-0F6A89F005CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="169">
   <si>
     <t>e_id</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>https://www.stonyp.com/class-type/Salesforce/Developing-Lightning-Web-Components</t>
+  </si>
+  <si>
+    <t>Palantir Pythin / PySpark Code</t>
+  </si>
+  <si>
+    <t>pyspark</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1011,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2647,6 +2653,44 @@
       </c>
       <c r="Q41" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A42" s="3">
+        <v>52</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="12">
+        <v>45717</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="19">
+        <v>3</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52968A64-2E9C-4751-844E-0F6A89F005CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C89C01-3D8C-45CF-AEB5-E9D6DFDFBE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,10 +616,10 @@
     <t>https://www.stonyp.com/class-type/Salesforce/Developing-Lightning-Web-Components</t>
   </si>
   <si>
-    <t>Palantir Pythin / PySpark Code</t>
-  </si>
-  <si>
     <t>pyspark</t>
+  </si>
+  <si>
+    <t>Palantir Python / PySpark Code</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2666,7 +2666,7 @@
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>147</v>
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>89</v>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C89C01-3D8C-45CF-AEB5-E9D6DFDFBE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88FCE0-0873-4708-A99B-540B64FEDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88FCE0-0873-4708-A99B-540B64FEDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12BB6E-65ED-4AA8-86A3-3165D36F4A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46176" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="166">
   <si>
     <t>e_id</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Data Science Orientation | IBM Cognitive Class</t>
   </si>
   <si>
-    <t>This badge earner has a good understanding of why data science, artificial intelligence (AI) and machine learning are revolutionizing the way people do business and research around the world. They have general knowledge on what data science is today.</t>
-  </si>
-  <si>
     <t>data science and analytics</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>cloud platform</t>
-  </si>
-  <si>
-    <t>Amazon AWS</t>
   </si>
   <si>
     <t>XML / SOAP API &amp; e-Commerce Series</t>
@@ -190,9 +184,6 @@
   </si>
   <si>
     <t>accenture</t>
-  </si>
-  <si>
-    <t>Accenture UK</t>
   </si>
   <si>
     <t>https://www.futurelearn.com/certificates/5f4cksb</t>
@@ -372,9 +363,6 @@
   </si>
   <si>
     <t>Security</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Information Systems</t>
   </si>
   <si>
     <t>07 Case Study</t>
@@ -511,9 +499,6 @@
     <t xml:space="preserve">Palantir Use Case Engineer Certification - Associate </t>
   </si>
   <si>
-    <t>Course focused on applying Palantir Foundry. Included exercises and lab work for end-to-end development of use cases within Foundry, including ontology object types, ingesting and transforming data (ETL - Extract, Transform, Load), building pipeline workflows and designing workshop applications. Demonstrated proficiency in aligning technical implementation with business outcomes, enabling stakeholders to optimize decision-making and data-driven insights</t>
-  </si>
-  <si>
     <t>https://certifications.ontologize.com/credentials/efdee22a-1550-45b4-a4d3-0e3d51f5555c</t>
   </si>
   <si>
@@ -620,6 +605,12 @@
   </si>
   <si>
     <t>Palantir Python / PySpark Code</t>
+  </si>
+  <si>
+    <t>featured</t>
+  </si>
+  <si>
+    <t>Accenture</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1005,10 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1081,26 +1072,28 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1108,139 +1101,144 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="57">
+    <row r="2" spans="1:27" ht="28.5">
       <c r="A2" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9">
-        <v>44795</v>
+        <v>45734</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="U2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="71.25">
+      <c r="A3" s="3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="57">
-      <c r="A3" s="3">
+      <c r="C3" s="9">
+        <v>45741</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10"/>
+      <c r="P3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="57">
+      <c r="A4" s="3">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45718</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
-        <v>45718</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="28.5">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9">
-        <v>45734</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="20">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="U4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="285">
+        <v>133</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="256.5">
       <c r="A5" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -1249,454 +1247,470 @@
         <v>35855</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R5" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
       <c r="S5" s="4"/>
-      <c r="U5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="114">
+    </row>
+    <row r="6" spans="1:27" ht="270.75">
       <c r="A6" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="9">
-        <v>44531</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>35855</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>137</v>
-      </c>
-      <c r="U6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="71.25">
+        <v>102</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" ht="342">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9">
-        <v>45741</v>
+        <v>35855</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10"/>
-      <c r="P7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>138</v>
+        <v>98</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="U7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="344.25">
+    </row>
+    <row r="8" spans="1:27" ht="285">
       <c r="A8" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="9">
-        <v>44614</v>
+        <v>35855</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>120</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U8" t="s">
-        <v>110</v>
+        <v>134</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1">
       <c r="A9" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="9">
-        <v>44795</v>
+        <v>44531</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
+      </c>
+      <c r="U9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
       <c r="A10" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
-        <v>45242</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="C10" s="9">
+        <v>44614</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="G10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="U10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1">
       <c r="A11" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="9">
-        <v>44958</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>44795</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="114">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="28.5">
       <c r="A12" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11">
-        <v>44911</v>
+      <c r="C12" s="9">
+        <v>44795</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="42.75">
+        <v>133</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="114">
       <c r="A13" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
-        <v>44986</v>
+      <c r="C13" s="11">
+        <v>45242</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>57</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="114">
       <c r="A14" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9">
-        <v>45078</v>
+      <c r="C14" s="11">
+        <v>44911</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="114">
       <c r="A15" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="9">
-        <v>45047</v>
+        <v>44958</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="57">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="42.75">
       <c r="A16" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="9">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="57">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="114">
       <c r="A17" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -1705,598 +1719,604 @@
         <v>45078</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="114">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="114">
       <c r="A18" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="9">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="114">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57">
       <c r="A19" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="9">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>24</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="57">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="57">
       <c r="A20" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C20" s="9">
-        <v>45292</v>
+        <v>45078</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="57">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="114">
       <c r="A21" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="9">
-        <v>45323</v>
+        <v>45108</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="57">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="114">
       <c r="A22" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="9">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="51">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="57">
       <c r="A23" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="C23" s="9">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
         <v>134</v>
       </c>
-      <c r="P23" t="s">
-        <v>138</v>
-      </c>
       <c r="Q23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="57">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="57">
       <c r="A24" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="9">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="28.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="57">
       <c r="A25" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="9">
-        <v>45627</v>
+        <v>45323</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="10"/>
+        <v>33</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="14.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="51">
       <c r="A26" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C26" s="9">
-        <v>45689</v>
+        <v>45293</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E26" s="14"/>
       <c r="G26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q26" t="s">
-        <v>139</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" ht="114">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="57">
       <c r="A27" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C27" s="9">
-        <v>45717</v>
+        <v>45261</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="14.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="28.5">
       <c r="A28" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="9">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G28" s="10" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q28" t="s">
-        <v>138</v>
-      </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" ht="42.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.25">
       <c r="A29" s="3">
-        <v>40</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="9">
-        <v>45717</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1</v>
+        <v>45689</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="M29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="10"/>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="256.5">
+        <v>134</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="114">
       <c r="A30" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="C30" s="9">
-        <v>35855</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>45717</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G30" s="10" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="10"/>
+        <v>88</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q30" t="s">
-        <v>139</v>
-      </c>
-      <c r="R30" s="4">
-        <v>2</v>
-      </c>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" ht="270.75">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="42.75">
       <c r="A31" s="3">
-        <v>11</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="C31" s="9">
-        <v>35855</v>
+        <v>45717</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" ht="342">
+      <c r="M31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.25">
       <c r="A32" s="3">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="9">
-        <v>35855</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>45717</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="G32" s="10" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>108</v>
+        <v>26</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="10"/>
+      <c r="P32" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>133</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2306,31 +2326,31 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
@@ -2338,38 +2358,38 @@
         <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="12">
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="25.5">
@@ -2377,37 +2397,37 @@
         <v>44</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="38.25">
@@ -2421,78 +2441,78 @@
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="H36" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="76.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="51">
       <c r="A37" s="3">
         <v>46</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N37" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" t="s">
         <v>133</v>
       </c>
-      <c r="P37" t="s">
-        <v>138</v>
-      </c>
       <c r="Q37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -2509,34 +2529,34 @@
         <v>45905</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F38" s="19">
         <v>2</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
@@ -2550,28 +2570,28 @@
         <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2579,16 +2599,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F40" s="30">
         <v>1</v>
@@ -2600,15 +2620,15 @@
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q40" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
@@ -2619,40 +2639,40 @@
         <v>51</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C41" s="12">
         <v>45352</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F41" s="19">
         <v>3</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1">
@@ -2660,69 +2680,72 @@
         <v>52</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C42" s="12">
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F42" s="19">
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V42">
+    <sortCondition ref="A2:A42"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B39 B36 B30:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$U$3:$U$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="N39" r:id="rId24" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,190 +2781,190 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3004,26 +3027,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -3034,16 +3057,16 @@
     <row r="3" spans="1:27" ht="127.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="12">
         <v>45893</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3053,21 +3076,21 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12BB6E-65ED-4AA8-86A3-3165D36F4A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B390DB91-173D-4F66-88F1-2EBEF54ACAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="168">
   <si>
     <t>e_id</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>Accenture</t>
+  </si>
+  <si>
+    <t>Professional Endorsements / What Others Have Said</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1008,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2515,7 +2521,7 @@
         <v>133</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1">
@@ -2625,10 +2631,10 @@
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q40" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
@@ -2711,6 +2717,35 @@
       </c>
       <c r="Q42" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A43" s="3">
+        <v>53</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="12">
+        <v>45910</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>167</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B390DB91-173D-4F66-88F1-2EBEF54ACAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E52A6-CA91-4DB8-8F18-DE89476589EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E52A6-CA91-4DB8-8F18-DE89476589EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D109528B-8F43-4EC0-A6F2-6426D456ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,7 +1014,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D109528B-8F43-4EC0-A6F2-6426D456ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894DA358-C3E4-44DB-86AB-C2FCEB46F2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>salesforce</t>
-  </si>
-  <si>
-    <t>https://trailhead.salesforce.com/en/credentials/certification-detail-print/?searchString=HYpyqtK1B3UvgIxnNWudps5Mb3QeDqBMqF6iJ42nfUngdklggpCgIot+RVM7HBbU</t>
   </si>
   <si>
     <t>GPT Builder Course: Mastering Specialized AI Agents</t>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>https://trailhead.salesforce.com/en/credentials/certification-detail-print/?searchString=BpG9k20MIqclUfABRN6MurtYPUE8znrBjmmJLKmUfO14QyIlEwIUzM3F+tWBpGPR</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1011,10 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1078,28 +1078,28 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1137,19 +1137,19 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="U2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="71.25">
@@ -1163,19 +1163,19 @@
         <v>45741</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>24</v>
@@ -1186,10 +1186,10 @@
       <c r="N3" s="8"/>
       <c r="O3" s="10"/>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1217,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>24</v>
@@ -1233,13 +1233,13 @@
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="256.5">
@@ -1253,10 +1253,10 @@
         <v>35855</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -1270,13 +1270,13 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R5" s="4">
         <v>2</v>
@@ -1294,30 +1294,30 @@
         <v>35855</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1333,30 +1333,30 @@
         <v>35855</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1394,10 +1394,10 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1429,19 +1429,19 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>39</v>
+        <v>143</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
@@ -1455,10 +1455,10 @@
         <v>44614</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1471,19 +1471,19 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1">
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1520,10 +1520,10 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="28.5">
@@ -1537,37 +1537,37 @@
         <v>44795</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="114">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="89.25">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>45242</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="10" t="s">
@@ -1591,19 +1591,19 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>39</v>
+        <v>143</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="114">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="14.25">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -1614,10 +1614,10 @@
         <v>44911</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -1629,19 +1629,19 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="114">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="14.25">
       <c r="A15" s="3">
         <v>23</v>
       </c>
@@ -1652,10 +1652,10 @@
         <v>44958</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -1667,16 +1667,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="42.75">
@@ -1690,31 +1690,31 @@
         <v>44986</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="114">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.25">
       <c r="A17" s="3">
         <v>25</v>
       </c>
@@ -1725,10 +1725,10 @@
         <v>45078</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
@@ -1739,19 +1739,19 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="114">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.25">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -1762,10 +1762,10 @@
         <v>45047</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
@@ -1777,16 +1777,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="57">
@@ -1800,7 +1800,7 @@
         <v>45078</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="10" t="s">
@@ -1810,16 +1810,16 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="57">
@@ -1833,7 +1833,7 @@
         <v>45078</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="10" t="s">
@@ -1843,19 +1843,19 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="114">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>45108</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>38</v>
@@ -1879,19 +1879,19 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="114">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.25">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -1902,10 +1902,10 @@
         <v>45231</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>38</v>
@@ -1915,16 +1915,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="57">
@@ -1932,22 +1932,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="9">
         <v>45292</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>33</v>
@@ -1955,16 +1955,16 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="57">
@@ -1978,17 +1978,17 @@
         <v>45323</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>33</v>
@@ -1996,16 +1996,16 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="57">
@@ -2019,17 +2019,17 @@
         <v>45323</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>33</v>
@@ -2037,16 +2037,16 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="51">
@@ -2060,29 +2060,29 @@
         <v>45293</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="57">
@@ -2096,10 +2096,10 @@
         <v>45261</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>24</v>
@@ -2108,16 +2108,16 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="28.5">
@@ -2131,34 +2131,34 @@
         <v>45627</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25">
@@ -2172,35 +2172,35 @@
         <v>45689</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="114">
@@ -2208,37 +2208,37 @@
         <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="9">
         <v>45717</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="42.75">
@@ -2246,16 +2246,16 @@
         <v>40</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="9">
         <v>45717</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
@@ -2267,22 +2267,22 @@
         <v>16</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25">
@@ -2296,19 +2296,19 @@
         <v>45717</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2319,10 +2319,10 @@
       <c r="N32" s="8"/>
       <c r="O32" s="10"/>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2332,31 +2332,31 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="G33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="P33" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
@@ -2370,10 +2370,10 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -2388,14 +2388,14 @@
         <v>38</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="25.5">
@@ -2403,37 +2403,37 @@
         <v>44</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="38.25">
@@ -2447,31 +2447,31 @@
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="M36" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="51">
@@ -2479,25 +2479,25 @@
         <v>46</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>16</v>
@@ -2506,19 +2506,19 @@
         <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>45905</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F38" s="19">
         <v>2</v>
@@ -2547,22 +2547,22 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="P38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
@@ -2576,10 +2576,10 @@
         <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>30</v>
@@ -2588,16 +2588,16 @@
         <v>23</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2605,16 +2605,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" s="30">
         <v>1</v>
@@ -2626,15 +2626,15 @@
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
@@ -2645,40 +2645,40 @@
         <v>51</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="12">
         <v>45352</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="19">
         <v>3</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1">
@@ -2686,37 +2686,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="12">
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="19">
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1">
@@ -2724,25 +2724,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="12">
         <v>45910</v>
       </c>
       <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" t="s">
-        <v>167</v>
-      </c>
       <c r="Q43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -2760,31 +2760,25 @@
   <hyperlinks>
     <hyperlink ref="N11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="N4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N39" r:id="rId24" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
+    <hyperlink ref="N10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N39" r:id="rId17" xr:uid="{5A8652B1-E40C-48AB-9C41-A8953A3455CB}"/>
+    <hyperlink ref="N9" r:id="rId18" xr:uid="{0B930030-61CB-4F57-8E2F-66C14A1FF8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2816,25 +2810,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2844,12 +2838,12 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2859,7 +2853,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2869,7 +2863,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -2884,22 +2878,22 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2909,12 +2903,12 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -2924,47 +2918,47 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -2974,27 +2968,27 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -3062,26 +3056,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -3092,16 +3086,16 @@
     <row r="3" spans="1:27" ht="127.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="12">
         <v>45893</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3111,21 +3105,21 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894DA358-C3E4-44DB-86AB-C2FCEB46F2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1640575B-5C30-4E9E-B0F7-123EE6BAA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="170">
   <si>
     <t>e_id</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>https://trailhead.salesforce.com/en/credentials/certification-detail-print/?searchString=BpG9k20MIqclUfABRN6MurtYPUE8znrBjmmJLKmUfO14QyIlEwIUzM3F+tWBpGPR</t>
+  </si>
+  <si>
+    <t>Automation Test Engineer (cloud-based CRM)</t>
+  </si>
+  <si>
+    <t>automation</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1014,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1603,7 +1609,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25">
+    <row r="14" spans="1:27" ht="114">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25">
+    <row r="15" spans="1:27" ht="114">
       <c r="A15" s="3">
         <v>23</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25">
+    <row r="17" spans="1:20" ht="114">
       <c r="A17" s="3">
         <v>25</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25">
+    <row r="18" spans="1:20" ht="114">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25">
+    <row r="21" spans="1:20" ht="114">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25">
+    <row r="22" spans="1:20" ht="114">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -2746,6 +2752,47 @@
       </c>
       <c r="R43">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A44" s="3">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="12">
+        <v>45746</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2796,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2837,162 +2884,188 @@
       </c>
     </row>
     <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
+        <v>156</v>
+      </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
       <c r="B14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="14.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1640575B-5C30-4E9E-B0F7-123EE6BAA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A4FB6-DA50-42BF-B693-47786903583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="181">
   <si>
     <t>e_id</t>
   </si>
@@ -327,9 +327,6 @@
     <t>The course covered the fundamentals of XML, focusing on its syntax, structure, and validation. It introduced XML as a markup language for data storage and exchange, taught the rules for creating well-formed XML documents using elements, attributes, and namespaces, and explained the structure of XML documents, including root and nested elements. The course also addressed defining and validating XML document structures using DTDs (Document Type Definitions) and XML Schemas (XSD), emphasizing adherence to these standards.
  &lt;br/&gt;&lt;br/&gt;
  Additionally, the course explored namespaces for resolving element name conflicts, entities for representing special characters or reusable content, and related technologies such as XSLT (for transforming XML into other formats) and XPath (for navigating XML documents). By its conclusion, the course provided learners with a solid foundation in creating, structuring, and validating XML documents while highlighting its broader applications in data exchange.</t>
-  </si>
-  <si>
-    <t>Web Development</t>
   </si>
   <si>
     <t>Lockheed Martin Information Services</t>
@@ -623,6 +620,42 @@
   </si>
   <si>
     <t>automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Developer (Salesforce OmniStudio) </t>
+  </si>
+  <si>
+    <t>Solution Engineer (Reporting &amp; Data Analytics)</t>
+  </si>
+  <si>
+    <t>Teleradnow</t>
+  </si>
+  <si>
+    <t>Amazon 3P Operator</t>
+  </si>
+  <si>
+    <t>Freedom Communications</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>ECI Cloud Solutions</t>
+  </si>
+  <si>
+    <t>Software Developer (Salesforce)</t>
+  </si>
+  <si>
+    <t>Full Stack Developer / Consultant</t>
+  </si>
+  <si>
+    <t>Web Application Developer</t>
+  </si>
+  <si>
+    <t>Senior Content Manager</t>
+  </si>
+  <si>
+    <t>Amazon 3P Operator &amp; Service Provider</t>
   </si>
 </sst>
 </file>
@@ -1014,13 +1047,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1028,7 +1061,7 @@
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="72.5703125" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="19"/>
@@ -1084,28 +1117,28 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1147,15 +1180,15 @@
       </c>
       <c r="O2" s="10"/>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="U2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="71.25">
@@ -1192,10 +1225,10 @@
       <c r="N3" s="8"/>
       <c r="O3" s="10"/>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1239,13 +1272,13 @@
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="256.5">
@@ -1276,13 +1309,13 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R5" s="4">
         <v>2</v>
@@ -1300,30 +1333,30 @@
         <v>35855</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1339,30 +1372,30 @@
         <v>35855</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1400,10 +1433,10 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1435,19 +1468,19 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
@@ -1464,7 +1497,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1483,13 +1516,13 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1">
@@ -1506,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1526,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="28.5">
@@ -1546,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>24</v>
@@ -1558,19 +1591,19 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="89.25">
@@ -1597,16 +1630,16 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="114">
@@ -1623,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -1635,16 +1668,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="114">
@@ -1661,7 +1694,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -1673,16 +1706,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="42.75">
@@ -1714,10 +1747,10 @@
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="114">
@@ -1734,7 +1767,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
@@ -1745,16 +1778,16 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="114">
@@ -1771,7 +1804,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
@@ -1783,16 +1816,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="57">
@@ -1822,10 +1855,10 @@
         <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="57">
@@ -1855,10 +1888,10 @@
         <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="114">
@@ -1875,7 +1908,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>38</v>
@@ -1885,16 +1918,16 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="114">
@@ -1911,7 +1944,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>38</v>
@@ -1921,16 +1954,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="57">
@@ -1938,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="9">
         <v>45292</v>
@@ -1947,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>66</v>
@@ -1967,10 +2000,10 @@
         <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="57">
@@ -1987,7 +2020,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -2008,10 +2041,10 @@
         <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="57">
@@ -2028,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -2049,10 +2082,10 @@
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="51">
@@ -2082,13 +2115,13 @@
         <v>59</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="57">
@@ -2105,7 +2138,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>24</v>
@@ -2120,10 +2153,10 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="28.5">
@@ -2140,7 +2173,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>79</v>
@@ -2161,10 +2194,10 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25">
@@ -2181,7 +2214,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>66</v>
@@ -2198,15 +2231,15 @@
       </c>
       <c r="O29" s="10"/>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="114">
@@ -2214,7 +2247,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="9">
         <v>45717</v>
@@ -2223,7 +2256,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>16</v>
@@ -2241,10 +2274,10 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="42.75">
@@ -2252,7 +2285,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="9">
         <v>45717</v>
@@ -2261,7 +2294,7 @@
         <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
@@ -2279,16 +2312,16 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25">
@@ -2305,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>24</v>
@@ -2325,10 +2358,10 @@
       <c r="N32" s="8"/>
       <c r="O32" s="10"/>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2338,16 +2371,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="12">
         <v>45752</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>79</v>
@@ -2356,13 +2389,13 @@
         <v>80</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
@@ -2376,10 +2409,10 @@
         <v>45776</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -2398,10 +2431,10 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="25.5">
@@ -2409,16 +2442,16 @@
         <v>44</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
@@ -2430,16 +2463,16 @@
         <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="38.25">
@@ -2453,31 +2486,31 @@
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="51">
@@ -2485,16 +2518,16 @@
         <v>46</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
@@ -2503,7 +2536,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>16</v>
@@ -2512,19 +2545,19 @@
         <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -2541,10 +2574,10 @@
         <v>45905</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="19">
         <v>2</v>
@@ -2553,22 +2586,22 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
         <v>53</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
@@ -2582,10 +2615,10 @@
         <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>30</v>
@@ -2597,13 +2630,13 @@
         <v>59</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2611,16 +2644,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="30">
         <v>1</v>
@@ -2637,10 +2670,10 @@
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
@@ -2651,16 +2684,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="12">
         <v>45352</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="19">
         <v>3</v>
@@ -2669,22 +2702,22 @@
         <v>67</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1">
@@ -2692,22 +2725,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="12">
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="19">
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>85</v>
@@ -2716,13 +2749,13 @@
         <v>92</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1">
@@ -2730,25 +2763,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="12">
         <v>45910</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -2759,19 +2792,16 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="12">
-        <v>45746</v>
+        <v>123</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" t="s">
         <v>168</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" t="s">
-        <v>169</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>92</v>
@@ -2780,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>35</v>
@@ -2789,10 +2819,295 @@
         <v>59</v>
       </c>
       <c r="P44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q44" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A45" s="3">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A46" s="3">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A47" s="3">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A48" s="3">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A49" s="3">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="P49" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A50" s="3">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" s="3">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P51" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" s="3">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P52" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A53" s="3">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="P53" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +3161,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2857,25 +3172,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2885,7 +3200,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
@@ -2893,7 +3208,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -2909,7 +3224,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -2920,12 +3235,12 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2933,7 +3248,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -2956,7 +3271,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2976,7 +3291,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2991,7 +3306,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3001,7 +3316,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3011,7 +3326,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3026,12 +3341,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -3046,7 +3361,7 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -3061,7 +3376,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -3129,26 +3444,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -3159,16 +3474,16 @@
     <row r="3" spans="1:27" ht="127.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="12">
         <v>45893</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3183,16 +3498,16 @@
       <c r="N3" s="14"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A4FB6-DA50-42BF-B693-47786903583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3B561-3913-46E0-9AD0-E59C9325F985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="180">
   <si>
     <t>e_id</t>
   </si>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>Freedom Communications</t>
-  </si>
-  <si>
-    <t>Lockheed Martin</t>
   </si>
   <si>
     <t>ECI Cloud Solutions</t>
@@ -1050,10 +1047,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1841,7 +1838,9 @@
       <c r="D19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1874,7 +1873,9 @@
       <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="42.75">
+    <row r="31" spans="1:20" ht="28.5">
       <c r="A31" s="3">
         <v>40</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="25.5">
+    <row r="35" spans="1:18" ht="14.25">
       <c r="A35" s="3">
         <v>44</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>123</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>140</v>
@@ -2926,7 +2927,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>140</v>
@@ -2958,7 +2959,7 @@
         <v>123</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>140</v>
@@ -2987,7 +2988,7 @@
         <v>123</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>140</v>
@@ -3019,7 +3020,7 @@
         <v>123</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>140</v>
@@ -3051,7 +3052,7 @@
         <v>123</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>140</v>
@@ -3068,8 +3069,8 @@
       <c r="J52" t="s">
         <v>70</v>
       </c>
-      <c r="M52" s="19" t="s">
-        <v>174</v>
+      <c r="M52" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="P52" t="s">
         <v>132</v>
@@ -3086,7 +3087,7 @@
         <v>123</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>140</v>
@@ -3101,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P53" t="s">
         <v>132</v>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3B561-3913-46E0-9AD0-E59C9325F985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D12F7B-EF9A-4C6B-8158-E1267CB82823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="180">
   <si>
     <t>e_id</t>
   </si>
@@ -1047,10 +1047,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1454,7 +1454,9 @@
       <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
       </c>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D12F7B-EF9A-4C6B-8158-E1267CB82823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20231D-BE75-4BCA-B2AD-E0C8388B8346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="180">
   <si>
     <t>e_id</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Agentic AI Innovation Session with AWS and Salesforce</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce,  enhancing their workflows with efficiency and speed.  AWS and Salesforce explore  their Agentic AI products and perform a demo of a  use case Salesforce built for DOGE.  This is an ideation session for Booz Allen technical  and sales leader for use cases we can  co-develop and close with our partners. </t>
-  </si>
-  <si>
     <t>Case Study: Salesforce / Palantir Colab</t>
   </si>
   <si>
@@ -653,6 +650,9 @@
   </si>
   <si>
     <t>Amazon 3P Operator &amp; Service Provider</t>
+  </si>
+  <si>
+    <t>Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce, enhancing their workflows with efficiency and speed. AWS and Salesforce explore their Agentic AI products and perform a demo of a use case Salesforce built for DOGE.  This was an ideation session for technical and sales leaders for use cases to be developed with colleagues.</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1047,10 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1114,28 +1114,28 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1177,15 +1177,15 @@
       </c>
       <c r="O2" s="10"/>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="U2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="71.25">
@@ -1222,10 +1222,10 @@
       <c r="N3" s="8"/>
       <c r="O3" s="10"/>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1269,13 +1269,13 @@
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="256.5">
@@ -1309,10 +1309,10 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5" s="4">
         <v>2</v>
@@ -1350,10 +1350,10 @@
         <v>100</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1430,10 +1430,10 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1455,7 +1455,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -1467,19 +1467,19 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1">
@@ -1496,7 +1496,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1515,10 +1515,10 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U10" t="s">
         <v>104</v>
@@ -1538,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1558,10 +1558,10 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="28.5">
@@ -1578,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>24</v>
@@ -1590,19 +1590,19 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="89.25">
@@ -1618,7 +1618,9 @@
       <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1629,16 +1631,16 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="114">
@@ -1655,7 +1657,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -1667,16 +1669,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="114">
@@ -1693,7 +1695,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -1705,16 +1707,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="42.75">
@@ -1730,7 +1732,9 @@
       <c r="D16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
@@ -1746,10 +1750,10 @@
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="114">
@@ -1766,7 +1770,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
@@ -1777,16 +1781,16 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="114">
@@ -1803,7 +1807,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
@@ -1815,16 +1819,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="57">
@@ -1841,7 +1845,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>24</v>
@@ -1856,10 +1860,10 @@
         <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="57">
@@ -1876,7 +1880,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>24</v>
@@ -1891,10 +1895,10 @@
         <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="114">
@@ -1911,7 +1915,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>38</v>
@@ -1921,16 +1925,16 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="114">
@@ -1947,7 +1951,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>38</v>
@@ -1957,16 +1961,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="57">
@@ -1974,7 +1978,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="9">
         <v>45292</v>
@@ -1983,7 +1987,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>66</v>
@@ -2003,10 +2007,10 @@
         <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="57">
@@ -2023,7 +2027,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -2044,10 +2048,10 @@
         <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="57">
@@ -2064,7 +2068,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -2085,10 +2089,10 @@
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="51">
@@ -2104,7 +2108,9 @@
       <c r="D26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
@@ -2118,13 +2124,13 @@
         <v>59</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="57">
@@ -2141,7 +2147,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>24</v>
@@ -2156,10 +2162,10 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="28.5">
@@ -2176,7 +2182,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>79</v>
@@ -2197,10 +2203,10 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.25">
@@ -2217,7 +2223,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>66</v>
@@ -2234,15 +2240,15 @@
       </c>
       <c r="O29" s="10"/>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="114">
@@ -2250,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="9">
         <v>45717</v>
@@ -2259,7 +2265,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>16</v>
@@ -2277,10 +2283,10 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="28.5">
@@ -2288,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="9">
         <v>45717</v>
@@ -2297,7 +2303,7 @@
         <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
@@ -2315,16 +2321,16 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25">
@@ -2341,7 +2347,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>24</v>
@@ -2361,10 +2367,10 @@
       <c r="N32" s="8"/>
       <c r="O32" s="10"/>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2395,10 +2401,10 @@
         <v>107</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
@@ -2415,7 +2421,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -2434,10 +2440,10 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.25">
@@ -2445,16 +2451,16 @@
         <v>44</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
@@ -2466,16 +2472,16 @@
         <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="38.25">
@@ -2489,31 +2495,31 @@
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="51">
@@ -2521,16 +2527,16 @@
         <v>46</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
@@ -2539,7 +2545,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>16</v>
@@ -2548,19 +2554,19 @@
         <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -2577,10 +2583,10 @@
         <v>45905</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="19">
         <v>2</v>
@@ -2589,22 +2595,22 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
         <v>53</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
@@ -2618,10 +2624,10 @@
         <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>30</v>
@@ -2633,13 +2639,13 @@
         <v>59</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2647,16 +2653,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="30">
         <v>1</v>
@@ -2673,10 +2679,10 @@
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
@@ -2687,16 +2693,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="12">
         <v>45352</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="19">
         <v>3</v>
@@ -2705,22 +2711,22 @@
         <v>67</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1">
@@ -2728,22 +2734,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="12">
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="19">
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>85</v>
@@ -2752,13 +2758,13 @@
         <v>92</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1">
@@ -2766,25 +2772,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="12">
         <v>45910</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -2795,16 +2801,16 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
         <v>167</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" t="s">
-        <v>168</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>92</v>
@@ -2813,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>35</v>
@@ -2822,10 +2828,10 @@
         <v>59</v>
       </c>
       <c r="P44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1">
@@ -2833,13 +2839,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -2851,10 +2857,10 @@
         <v>59</v>
       </c>
       <c r="P45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1">
@@ -2862,13 +2868,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
@@ -2883,10 +2889,10 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1">
@@ -2894,16 +2900,16 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
@@ -2915,10 +2921,10 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1">
@@ -2926,16 +2932,16 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
         <v>38</v>
@@ -2947,10 +2953,10 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1">
@@ -2958,13 +2964,13 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
@@ -2973,13 +2979,13 @@
         <v>24</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1">
@@ -2987,13 +2993,13 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -3005,13 +3011,13 @@
         <v>53</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1">
@@ -3019,13 +3025,13 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -3037,13 +3043,13 @@
         <v>53</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1">
@@ -3051,13 +3057,13 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -3075,10 +3081,10 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1">
@@ -3086,13 +3092,13 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
         <v>70</v>
@@ -3104,13 +3110,13 @@
         <v>35</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3175,25 +3181,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3203,7 +3209,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -3227,7 +3233,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -3238,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3251,7 +3257,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3294,7 +3300,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3319,7 +3325,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3329,7 +3335,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3344,12 +3350,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -3447,26 +3453,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -3477,16 +3483,16 @@
     <row r="3" spans="1:27" ht="127.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="12">
         <v>45893</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3501,16 +3507,16 @@
       <c r="N3" s="14"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20231D-BE75-4BCA-B2AD-E0C8388B8346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDB70A1-8AA8-49C3-970B-3EF31DBE58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="180">
   <si>
     <t>e_id</t>
   </si>
@@ -598,9 +598,6 @@
     <t>Palantir Python / PySpark Code</t>
   </si>
   <si>
-    <t>featured</t>
-  </si>
-  <si>
     <t>Accenture</t>
   </si>
   <si>
@@ -653,6 +650,9 @@
   </si>
   <si>
     <t>Agentic AI products are revolutionizing the tech landscape. Clients can use Agentic AI to deploy a digital workforce, enhancing their workflows with efficiency and speed. AWS and Salesforce explore their Agentic AI products and perform a demo of a use case Salesforce built for DOGE.  This was an ideation session for technical and sales leaders for use cases to be developed with colleagues.</t>
+  </si>
+  <si>
+    <t>featured_top</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1044,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1068,9 +1068,10 @@
     <col min="14" max="14" width="24.7109375" style="14" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="19" customWidth="1"/>
     <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1126,24 +1127,21 @@
         <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="28.5">
+    </row>
+    <row r="2" spans="1:26" ht="28.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1184,11 +1182,11 @@
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="71.25">
+    <row r="3" spans="1:26" ht="71.25">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -1229,11 +1227,11 @@
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="57">
+    <row r="4" spans="1:26" ht="57">
       <c r="A4" s="3">
         <v>8</v>
       </c>
@@ -1274,11 +1272,11 @@
       <c r="Q4" t="s">
         <v>130</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="T4" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="256.5">
+    <row r="5" spans="1:26" ht="256.5">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1319,7 +1317,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="270.75">
+    <row r="6" spans="1:26" ht="270.75">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1358,7 +1356,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="342">
+    <row r="7" spans="1:26" ht="342">
       <c r="A7" s="3">
         <v>12</v>
       </c>
@@ -1397,7 +1395,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="285">
+    <row r="8" spans="1:26" ht="285">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -1437,11 +1435,11 @@
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="U8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="30" customHeight="1">
+    <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="3">
         <v>14</v>
       </c>
@@ -1470,7 +1468,7 @@
         <v>141</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P9" t="s">
         <v>129</v>
@@ -1478,11 +1476,11 @@
       <c r="Q9" t="s">
         <v>129</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1">
+    <row r="10" spans="1:26" ht="30" customHeight="1">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -1520,11 +1518,11 @@
       <c r="Q10" t="s">
         <v>129</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1">
+    <row r="11" spans="1:26" ht="30" customHeight="1">
       <c r="A11" s="3">
         <v>16</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="28.5">
+    <row r="12" spans="1:26" ht="28.5">
       <c r="A12" s="3">
         <v>17</v>
       </c>
@@ -1590,7 +1588,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>48</v>
@@ -1601,11 +1599,11 @@
       <c r="Q12" t="s">
         <v>130</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="89.25">
+    <row r="13" spans="1:26" ht="89.25">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -1634,7 +1632,7 @@
         <v>141</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s">
         <v>129</v>
@@ -1643,7 +1641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="114">
+    <row r="14" spans="1:26" ht="114">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>141</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s">
         <v>129</v>
@@ -1681,7 +1679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="114">
+    <row r="15" spans="1:26" ht="114">
       <c r="A15" s="3">
         <v>23</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>141</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s">
         <v>129</v>
@@ -1719,7 +1717,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="42.75">
+    <row r="16" spans="1:26" ht="42.75">
       <c r="A16" s="3">
         <v>24</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="114">
+    <row r="17" spans="1:19" ht="114">
       <c r="A17" s="3">
         <v>25</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>141</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s">
         <v>128</v>
@@ -1793,7 +1791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="114">
+    <row r="18" spans="1:19" ht="114">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>141</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" t="s">
         <v>129</v>
@@ -1831,7 +1829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57">
+    <row r="19" spans="1:19" ht="57">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="57">
+    <row r="20" spans="1:19" ht="57">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="114">
+    <row r="21" spans="1:19" ht="114">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>141</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P21" t="s">
         <v>129</v>
@@ -1937,7 +1935,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="114">
+    <row r="22" spans="1:19" ht="114">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>141</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P22" t="s">
         <v>129</v>
@@ -1973,12 +1971,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="57">
+    <row r="23" spans="1:19" ht="57">
       <c r="A23" s="3">
         <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9">
         <v>45292</v>
@@ -2012,8 +2010,11 @@
       <c r="Q23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="57">
+      <c r="S23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="57">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="57">
+    <row r="25" spans="1:19" ht="57">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="51">
+    <row r="26" spans="1:19" ht="51">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="57">
+    <row r="27" spans="1:19" ht="57">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="28.5">
+    <row r="28" spans="1:19" ht="28.5">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25">
+    <row r="29" spans="1:19" ht="14.25">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -2247,16 +2248,13 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="114">
+    </row>
+    <row r="30" spans="1:19" ht="114">
       <c r="A30" s="3">
         <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="C30" s="9">
         <v>45717</v>
@@ -2288,13 +2286,19 @@
       <c r="Q30" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="28.5">
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="28.5">
       <c r="A31" s="3">
         <v>40</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>154</v>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="9">
         <v>45717</v>
@@ -2332,8 +2336,14 @@
       <c r="Q31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="14.25">
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="14.25">
       <c r="A32" s="3">
         <v>41</v>
       </c>
@@ -2375,7 +2385,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.25" customHeight="1">
+    <row r="33" spans="1:19" ht="53.25" customHeight="1">
       <c r="A33" s="3">
         <v>42</v>
       </c>
@@ -2407,7 +2417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>43</v>
       </c>
@@ -2421,7 +2431,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -2446,12 +2456,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.25">
+    <row r="35" spans="1:19" ht="14.25">
       <c r="A35" s="3">
         <v>44</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>154</v>
+      <c r="B35" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="12">
         <v>45748</v>
@@ -2483,8 +2493,11 @@
       <c r="Q35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="38.25">
+      <c r="S35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="38.25">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -2522,12 +2535,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51">
+    <row r="37" spans="1:19" ht="51">
       <c r="A37" s="3">
         <v>46</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>154</v>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C37" s="12">
         <v>45869</v>
@@ -2571,8 +2584,11 @@
       <c r="R37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>48</v>
       </c>
@@ -2613,7 +2629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>49</v>
       </c>
@@ -2648,12 +2664,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:19" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26">
         <v>50</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>154</v>
+      <c r="B40" t="s">
+        <v>122</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
@@ -2687,13 +2703,16 @@
       <c r="R40" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S40" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>51</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>154</v>
+      <c r="B41" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C41" s="12">
         <v>45352</v>
@@ -2728,13 +2747,16 @@
       <c r="Q41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1">
       <c r="A42" s="3">
         <v>52</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>154</v>
+      <c r="B42" t="s">
+        <v>104</v>
       </c>
       <c r="C42" s="12">
         <v>45717</v>
@@ -2766,19 +2788,22 @@
       <c r="Q42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>53</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>154</v>
+      <c r="B43" t="s">
+        <v>122</v>
       </c>
       <c r="C43" s="12">
         <v>45910</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>139</v>
@@ -2787,16 +2812,19 @@
         <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1">
+      <c r="S43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>54</v>
       </c>
@@ -2804,13 +2832,13 @@
         <v>122</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
         <v>166</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" t="s">
-        <v>167</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>92</v>
@@ -2834,7 +2862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1">
       <c r="A45" s="3">
         <v>55</v>
       </c>
@@ -2842,7 +2870,7 @@
         <v>122</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>139</v>
@@ -2863,7 +2891,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1">
       <c r="A46" s="3">
         <v>56</v>
       </c>
@@ -2871,7 +2899,7 @@
         <v>122</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>139</v>
@@ -2895,7 +2923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>57</v>
       </c>
@@ -2903,13 +2931,13 @@
         <v>122</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
@@ -2927,7 +2955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="3">
         <v>58</v>
       </c>
@@ -2935,13 +2963,13 @@
         <v>122</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
         <v>38</v>
@@ -2967,7 +2995,7 @@
         <v>122</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>139</v>
@@ -2979,7 +3007,7 @@
         <v>24</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P49" t="s">
         <v>131</v>
@@ -2996,7 +3024,7 @@
         <v>122</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>139</v>
@@ -3011,7 +3039,7 @@
         <v>53</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P50" t="s">
         <v>131</v>
@@ -3028,7 +3056,7 @@
         <v>122</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>139</v>
@@ -3043,7 +3071,7 @@
         <v>53</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P51" t="s">
         <v>131</v>
@@ -3060,7 +3088,7 @@
         <v>122</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>139</v>
@@ -3095,7 +3123,7 @@
         <v>122</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>139</v>
@@ -3110,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P53" t="s">
         <v>131</v>
@@ -3120,12 +3148,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B39 B36 B30:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
-      <formula1>$U$3:$U$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+      <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3169,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3208,9 +3236,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>154</v>
-      </c>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -3244,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDB70A1-8AA8-49C3-970B-3EF31DBE58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B328C-74E8-48D5-9FA0-C367C1C6BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="182">
   <si>
     <t>e_id</t>
   </si>
@@ -434,9 +434,6 @@
     <t>Case Study: Salesforce / Palantir Colab</t>
   </si>
   <si>
-    <t>palantirFoundry</t>
-  </si>
-  <si>
     <t>05 Feedback</t>
   </si>
   <si>
@@ -653,6 +650,15 @@
   </si>
   <si>
     <t>featured_top</t>
+  </si>
+  <si>
+    <t>09 Summary</t>
+  </si>
+  <si>
+    <t>Palantir Experience</t>
+  </si>
+  <si>
+    <t>palantir foundry</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1050,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1115,25 +1121,25 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1175,15 +1181,15 @@
       </c>
       <c r="O2" s="10"/>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="71.25">
@@ -1220,10 +1226,10 @@
       <c r="N3" s="8"/>
       <c r="O3" s="10"/>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1267,13 +1273,13 @@
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="256.5">
@@ -1307,10 +1313,10 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="4">
         <v>2</v>
@@ -1348,10 +1354,10 @@
         <v>100</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1428,10 +1434,10 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1453,7 +1459,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -1465,19 +1471,19 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1">
@@ -1494,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1513,10 +1519,10 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T10" t="s">
         <v>104</v>
@@ -1536,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1556,10 +1562,10 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="28.5">
@@ -1576,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>24</v>
@@ -1588,19 +1594,19 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="89.25">
@@ -1617,7 +1623,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>30</v>
@@ -1629,16 +1635,16 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="114">
@@ -1655,7 +1661,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -1667,16 +1673,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="114">
@@ -1693,7 +1699,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -1705,16 +1711,16 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="42.75">
@@ -1731,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>30</v>
@@ -1748,10 +1754,10 @@
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="114">
@@ -1768,7 +1774,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
@@ -1779,16 +1785,16 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="114">
@@ -1805,7 +1811,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
@@ -1817,16 +1823,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="57">
@@ -1843,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>24</v>
@@ -1858,10 +1864,10 @@
         <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="57">
@@ -1878,7 +1884,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>24</v>
@@ -1893,10 +1899,10 @@
         <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="114">
@@ -1913,7 +1919,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>38</v>
@@ -1923,16 +1929,16 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="114">
@@ -1949,7 +1955,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>38</v>
@@ -1959,16 +1965,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="57">
@@ -1985,7 +1991,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>66</v>
@@ -2005,13 +2011,13 @@
         <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="57">
@@ -2028,7 +2034,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -2049,10 +2055,10 @@
         <v>71</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="57">
@@ -2069,7 +2075,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -2090,10 +2096,10 @@
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="51">
@@ -2110,7 +2116,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>24</v>
@@ -2125,13 +2131,13 @@
         <v>59</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="57">
@@ -2148,7 +2154,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>24</v>
@@ -2163,10 +2169,10 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.5">
@@ -2183,7 +2189,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>79</v>
@@ -2204,10 +2210,10 @@
         <v>83</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.25">
@@ -2224,7 +2230,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>66</v>
@@ -2241,10 +2247,10 @@
       </c>
       <c r="O29" s="10"/>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -2263,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>16</v>
@@ -2281,16 +2287,16 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="S30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="28.5">
@@ -2307,7 +2313,7 @@
         <v>91</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
@@ -2325,22 +2331,22 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="S31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="14.25">
@@ -2357,7 +2363,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>24</v>
@@ -2377,10 +2383,10 @@
       <c r="N32" s="8"/>
       <c r="O32" s="10"/>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2411,10 +2417,10 @@
         <v>107</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
@@ -2431,7 +2437,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -2450,10 +2456,10 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="14.25">
@@ -2470,7 +2476,7 @@
         <v>109</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
@@ -2482,19 +2488,19 @@
         <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="38.25">
@@ -2508,31 +2514,31 @@
         <v>45748</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="51">
@@ -2546,10 +2552,10 @@
         <v>45869</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" s="19">
         <v>2</v>
@@ -2558,7 +2564,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>16</v>
@@ -2567,25 +2573,25 @@
         <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R37">
         <v>3</v>
       </c>
       <c r="S37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1">
@@ -2599,10 +2605,10 @@
         <v>45905</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F38" s="19">
         <v>2</v>
@@ -2611,22 +2617,22 @@
         <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
         <v>53</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1">
@@ -2640,10 +2646,10 @@
         <v>45908</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>30</v>
@@ -2655,13 +2661,13 @@
         <v>59</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -2669,16 +2675,16 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="28">
         <v>45910</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="30">
         <v>1</v>
@@ -2695,16 +2701,16 @@
       <c r="N40" s="31"/>
       <c r="O40" s="30"/>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R40" s="27">
         <v>1</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1">
@@ -2718,10 +2724,10 @@
         <v>45352</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="19">
         <v>3</v>
@@ -2730,25 +2736,25 @@
         <v>67</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1">
@@ -2762,16 +2768,16 @@
         <v>45717</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" s="19">
         <v>3</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>85</v>
@@ -2780,16 +2786,16 @@
         <v>92</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1">
@@ -2797,31 +2803,31 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="12">
         <v>45910</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R43">
         <v>2</v>
       </c>
       <c r="S43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1">
@@ -2829,16 +2835,16 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
         <v>165</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" t="s">
-        <v>166</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>92</v>
@@ -2847,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>35</v>
@@ -2856,10 +2862,10 @@
         <v>59</v>
       </c>
       <c r="P44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1">
@@ -2867,13 +2873,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -2885,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="P45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1">
@@ -2896,13 +2902,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
@@ -2917,10 +2923,10 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1">
@@ -2928,16 +2934,16 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
@@ -2949,10 +2955,10 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
@@ -2960,16 +2966,16 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H48" t="s">
         <v>38</v>
@@ -2981,24 +2987,24 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="3">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
@@ -3007,27 +3013,27 @@
         <v>24</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -3039,27 +3045,27 @@
         <v>53</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="3">
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -3071,27 +3077,27 @@
         <v>53</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="3">
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -3109,24 +3115,24 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
         <v>70</v>
@@ -3138,20 +3144,58 @@
         <v>35</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q53" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A54" s="3">
+        <v>64</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>129</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U42">
     <sortCondition ref="A2:A42"/>
   </sortState>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
@@ -3180,7 +3224,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B85EEB15-25C6-4F11-94B9-0EBCBA316893}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$102</xm:f>
@@ -3197,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3209,25 +3253,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3243,7 +3287,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -3259,7 +3303,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -3270,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3283,13 +3327,16 @@
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -3306,7 +3353,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3326,7 +3373,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3351,7 +3398,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3361,7 +3408,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3376,12 +3423,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -3479,26 +3526,26 @@
         <v>13</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -3509,16 +3556,16 @@
     <row r="3" spans="1:27" ht="127.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="12">
         <v>45893</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3533,16 +3580,16 @@
       <c r="N3" s="14"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B328C-74E8-48D5-9FA0-C367C1C6BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91338C12-342E-47C5-B1FC-26F76B3F034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,10 +1053,10 @@
   <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2292,9 +2292,6 @@
       <c r="Q30" t="s">
         <v>134</v>
       </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
       <c r="S30" t="s">
         <v>150</v>
       </c>
@@ -2342,9 +2339,6 @@
       <c r="Q31" t="s">
         <v>129</v>
       </c>
-      <c r="R31">
-        <v>4</v>
-      </c>
       <c r="S31" t="s">
         <v>150</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>129</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S37" t="s">
         <v>150</v>
@@ -3185,7 +3179,7 @@
         <v>129</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S54" t="s">
         <v>150</v>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91338C12-342E-47C5-B1FC-26F76B3F034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C75ECE7-E448-44A0-B040-93CBDD800EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="192">
   <si>
     <t>e_id</t>
   </si>
@@ -660,12 +660,42 @@
   <si>
     <t>palantir foundry</t>
   </si>
+  <si>
+    <t>pipeline builder</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>Palantir: Building a RAG Workflow using Pipeline Builder and AIP Logic</t>
+  </si>
+  <si>
+    <t>rag (retrieval-augmented generation)</t>
+  </si>
+  <si>
+    <t>Technology Behind this Website</t>
+  </si>
+  <si>
+    <t>cursor ai</t>
+  </si>
+  <si>
+    <t>RAG App using GitHub Repo as Datasource</t>
+  </si>
+  <si>
+    <t>RAG Implementation</t>
+  </si>
+  <si>
+    <t>rag (retrieval augmented generation)</t>
+  </si>
+  <si>
+    <t>RAG Implementation Projects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -725,6 +755,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -747,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -831,6 +867,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1050,13 +1089,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3182,6 +3221,217 @@
         <v>2</v>
       </c>
       <c r="S54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A55" s="3">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>129</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A56" s="3">
+        <v>66</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A57" s="3">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>129</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A58" s="3">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>129</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A59" s="3">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>129</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3221,7 +3471,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B85EEB15-25C6-4F11-94B9-0EBCBA316893}">
           <x14:formula1>
-            <xm:f>options!$B$2:$B$102</xm:f>
+            <xm:f>options!$B$2:$B$103</xm:f>
           </x14:formula1>
           <xm:sqref>G36:J36</xm:sqref>
         </x14:dataValidation>
@@ -3233,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6A3D1-7DA5-4085-813B-D0E5FB370B60}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3427,36 +3677,41 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C75ECE7-E448-44A0-B040-93CBDD800EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC5ED3-8693-47EB-B320-6E8343132853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="194">
   <si>
     <t>e_id</t>
   </si>
@@ -690,12 +690,18 @@
   <si>
     <t>RAG Implementation Projects</t>
   </si>
+  <si>
+    <t>Software (COTS) &amp; Skills</t>
+  </si>
+  <si>
+    <t>Technical Certifications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -761,6 +767,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -783,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,13 +1103,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3435,12 +3449,94 @@
         <v>150</v>
       </c>
     </row>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A60" s="3">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" t="s">
+        <v>53</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>130</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A61" s="3">
+        <v>71</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>130</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U42">
     <sortCondition ref="A2:A42"/>
   </sortState>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3468,7 +3564,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B85EEB15-25C6-4F11-94B9-0EBCBA316893}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$103</xm:f>
@@ -3486,7 +3582,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC5ED3-8693-47EB-B320-6E8343132853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC493156-3DD0-4E0D-9FD0-7B3777B772B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="195">
   <si>
     <t>e_id</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>Technical Certifications</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1103,13 +1106,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3531,12 +3534,21 @@
         <v>150</v>
       </c>
     </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A62" s="3">
+        <v>999</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="D62" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B62" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3582,7 +3594,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3681,7 +3693,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC493156-3DD0-4E0D-9FD0-7B3777B772B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1316D8-7B2D-4713-BEAA-9A3FC3135EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="200">
   <si>
     <t>e_id</t>
   </si>
@@ -698,6 +698,21 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Gold Award</t>
+  </si>
+  <si>
+    <t>Silver Award</t>
+  </si>
+  <si>
+    <t>Bronze Award</t>
+  </si>
+  <si>
+    <t>Platinum Award</t>
+  </si>
+  <si>
+    <t>BAH Awards</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +1121,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1121,7 +1136,7 @@
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="42.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="22" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="19" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="19"/>
     <col min="9" max="9" width="17.42578125" style="19" customWidth="1"/>
@@ -3536,10 +3551,190 @@
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1">
       <c r="A62" s="3">
+        <v>72</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="12">
+        <v>45678</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="M62" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>128</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A63" s="3">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="12">
+        <v>45645</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="M63" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A64" s="3">
+        <v>74</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="12">
+        <v>45534</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="M64" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A65" s="3">
+        <v>75</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="12">
+        <v>45467</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="M65" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A66" s="3">
+        <v>76</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="12">
+        <v>44973</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="M66" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A67" s="3">
+        <v>77</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="12">
+        <v>45930</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="M67" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A68" s="3">
         <v>999</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="D62" s="14" t="s">
+      <c r="B68" s="8"/>
+      <c r="D68" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3548,7 +3743,7 @@
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B62" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B68" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3594,7 +3789,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1316D8-7B2D-4713-BEAA-9A3FC3135EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232BA2B-76F8-4CBE-BF1B-5457077001EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="205">
   <si>
     <t>e_id</t>
   </si>
@@ -712,14 +712,29 @@
     <t>Platinum Award</t>
   </si>
   <si>
-    <t>BAH Awards</t>
+    <t>73% YoY Reduction in PROD Defects by our Team</t>
+  </si>
+  <si>
+    <t>Business School Scholarship Winner</t>
+  </si>
+  <si>
+    <t>EDHEC</t>
+  </si>
+  <si>
+    <t>University Activities</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Awards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -790,6 +805,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -812,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,6 +923,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1121,13 +1143,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1218,7 +1240,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="28.5">
+    <row r="2" spans="1:26" ht="114">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="71.25">
+    <row r="3" spans="1:26" ht="256.5">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -1308,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="57">
+    <row r="4" spans="1:26" ht="199.5">
       <c r="A4" s="3">
         <v>8</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="256.5">
+    <row r="5" spans="1:26" ht="409.5">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1394,7 +1416,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="270.75">
+    <row r="6" spans="1:26" ht="409.5">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1433,7 +1455,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="342">
+    <row r="7" spans="1:26" ht="409.5">
       <c r="A7" s="3">
         <v>12</v>
       </c>
@@ -1472,7 +1494,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="285">
+    <row r="8" spans="1:26" ht="409.5">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -2568,7 +2590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="38.25">
+    <row r="36" spans="1:19" ht="127.5">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -3711,7 +3733,7 @@
         <v>45930</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>138</v>
@@ -3731,10 +3753,97 @@
     </row>
     <row r="68" spans="1:17" ht="15.75" customHeight="1">
       <c r="A68" s="3">
+        <v>78</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="12">
+        <v>45930</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="M68" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A69" s="3">
+        <v>79</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="12">
+        <v>45930</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="M69" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P69" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A70" s="3">
+        <v>80</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="12">
+        <v>45930</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="M70" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="P70" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A71" s="3">
         <v>999</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="D68" s="14" t="s">
+      <c r="B71" s="8"/>
+      <c r="D71" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3743,7 +3852,7 @@
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B68" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B71" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232BA2B-76F8-4CBE-BF1B-5457077001EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180644D-0D5F-4C4C-A91E-DAC4F0137DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="207">
   <si>
     <t>e_id</t>
   </si>
@@ -728,6 +728,12 @@
   </si>
   <si>
     <t>Awards</t>
+  </si>
+  <si>
+    <t>Ai and the Future of Productivity</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
   </si>
 </sst>
 </file>
@@ -1143,13 +1149,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3840,10 +3846,35 @@
     </row>
     <row r="71" spans="1:17" ht="15.75" customHeight="1">
       <c r="A71" s="3">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="12">
+        <v>45998</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="M71" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A72" s="3">
         <v>999</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="D71" s="14" t="s">
+      <c r="B72" s="8"/>
+      <c r="D72" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3852,7 +3883,7 @@
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B71" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B70 B72" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github-sdooley-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180644D-0D5F-4C4C-A91E-DAC4F0137DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EA204-94FA-442B-96CE-B204CAC0E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="211">
   <si>
     <t>e_id</t>
   </si>
@@ -734,6 +734,18 @@
   </si>
   <si>
     <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Moveworks/ServiceNow Agentic AI Workflows</t>
+  </si>
+  <si>
+    <t>agentic ai</t>
+  </si>
+  <si>
+    <t>moveworks</t>
+  </si>
+  <si>
+    <t>servicenow</t>
   </si>
 </sst>
 </file>
@@ -1149,13 +1161,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3868,13 +3880,55 @@
       <c r="M71" s="22" t="s">
         <v>206</v>
       </c>
+      <c r="P71" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="72" spans="1:17" ht="15.75" customHeight="1">
       <c r="A72" s="3">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="12">
+        <v>46066</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72"/>
+      <c r="M72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A73" s="3">
         <v>999</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="D72" s="14" t="s">
+      <c r="B73" s="8"/>
+      <c r="D73" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3883,7 +3937,7 @@
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B70 B72" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B70 B73" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\629459\Documents\_ career\sdooley-dev.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\claude_projects\sd_github_021626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EA204-94FA-442B-96CE-B204CAC0E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB0C6D-51F1-4828-918D-19C7B2F97240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45456" yWindow="624" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -736,9 +736,6 @@
     <t>OpenAI</t>
   </si>
   <si>
-    <t>Moveworks/ServiceNow Agentic AI Workflows</t>
-  </si>
-  <si>
     <t>agentic ai</t>
   </si>
   <si>
@@ -746,6 +743,9 @@
   </si>
   <si>
     <t>servicenow</t>
+  </si>
+  <si>
+    <t>Moveworks/ServiceNow Agentic AI Workflow</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3898,19 +3898,19 @@
         <v>46066</v>
       </c>
       <c r="D72" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="I72" t="s">
         <v>209</v>
-      </c>
-      <c r="I72" t="s">
-        <v>210</v>
       </c>
       <c r="J72"/>
       <c r="M72" s="19" t="s">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\claude_projects\sd_github_021626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB0C6D-51F1-4828-918D-19C7B2F97240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C16EE0-96C1-4AB1-8A88-ABF4A675F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45456" yWindow="624" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="214">
   <si>
     <t>e_id</t>
   </si>
@@ -697,9 +697,6 @@
     <t>Technical Certifications</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Gold Award</t>
   </si>
   <si>
@@ -746,6 +743,18 @@
   </si>
   <si>
     <t>Moveworks/ServiceNow Agentic AI Workflow</t>
+  </si>
+  <si>
+    <t>yaml</t>
+  </si>
+  <si>
+    <t>claude code</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Claude Code - GitHub Deployment Workflow</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1176,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3600,7 +3609,7 @@
         <v>45678</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>138</v>
@@ -3635,7 +3644,7 @@
         <v>45645</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>138</v>
@@ -3664,7 +3673,7 @@
         <v>45534</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>138</v>
@@ -3693,7 +3702,7 @@
         <v>45467</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>138</v>
@@ -3722,7 +3731,7 @@
         <v>44973</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>138</v>
@@ -3751,7 +3760,7 @@
         <v>45930</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>138</v>
@@ -3780,7 +3789,7 @@
         <v>45930</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>138</v>
@@ -3809,7 +3818,7 @@
         <v>45930</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="35" t="s">
         <v>138</v>
@@ -3818,7 +3827,7 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="M69" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P69" t="s">
         <v>128</v>
@@ -3838,7 +3847,7 @@
         <v>45930</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>138</v>
@@ -3847,7 +3856,7 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="M70" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P70" t="s">
         <v>128</v>
@@ -3867,7 +3876,7 @@
         <v>45998</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>138</v>
@@ -3878,7 +3887,7 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="M71" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P71" t="s">
         <v>129</v>
@@ -3898,21 +3907,23 @@
         <v>46066</v>
       </c>
       <c r="D72" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" t="s">
-        <v>207</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="I72" t="s">
-        <v>209</v>
-      </c>
-      <c r="J72"/>
       <c r="M72" s="19" t="s">
         <v>59</v>
       </c>
@@ -3925,11 +3936,37 @@
     </row>
     <row r="73" spans="1:17" ht="15.75" customHeight="1">
       <c r="A73" s="3">
-        <v>999</v>
-      </c>
-      <c r="B73" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="12">
+        <v>46069</v>
+      </c>
       <c r="D73" s="14" t="s">
-        <v>194</v>
+        <v>213</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3974,7 @@
     <sortCondition ref="A2:A42"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B70 B73" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B39 B41 B32:B34 B2:B28 B61:B70" xr:uid="{ED44EAAA-DACA-40E8-A7DB-D96063B10E1E}">
       <formula1>$T$3:$T$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3962,7 +3999,7 @@
     <hyperlink ref="N9" r:id="rId18" xr:uid="{0B930030-61CB-4F57-8E2F-66C14A1FF8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\claude_projects\sd_github_021626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C16EE0-96C1-4AB1-8A88-ABF4A675F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E2E2B4-D3DE-4FEE-AD42-4E44A1D6C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="212">
   <si>
     <t>e_id</t>
   </si>
@@ -725,12 +725,6 @@
   </si>
   <si>
     <t>Awards</t>
-  </si>
-  <si>
-    <t>Ai and the Future of Productivity</t>
-  </si>
-  <si>
-    <t>OpenAI</t>
   </si>
   <si>
     <t>agentic ai</t>
@@ -1170,13 +1164,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3867,27 +3861,34 @@
     </row>
     <row r="71" spans="1:17" ht="15.75" customHeight="1">
       <c r="A71" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C71" s="12">
-        <v>45998</v>
+        <v>46066</v>
       </c>
       <c r="D71" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="M71" s="22" t="s">
+      <c r="H71" s="19" t="s">
         <v>205</v>
+      </c>
+      <c r="I71" t="s">
+        <v>206</v>
+      </c>
+      <c r="J71" t="s">
+        <v>208</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="P71" t="s">
         <v>129</v>
@@ -3898,31 +3899,28 @@
     </row>
     <row r="72" spans="1:17" ht="15.75" customHeight="1">
       <c r="A72" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="12">
-        <v>46066</v>
-      </c>
-      <c r="D72" s="34" t="s">
+        <v>46069</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" t="s">
-        <v>206</v>
-      </c>
       <c r="H72" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
-      </c>
-      <c r="J72" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>59</v>
@@ -3931,41 +3929,6 @@
         <v>129</v>
       </c>
       <c r="Q72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="12">
-        <v>46069</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I73" t="s">
-        <v>206</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P73" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q73" t="s">
         <v>129</v>
       </c>
     </row>

--- a/040625-skills.xlsx
+++ b/040625-skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\claude_projects\sd_github_021626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E2E2B4-D3DE-4FEE-AD42-4E44A1D6C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A16110-ACBB-4DBD-B044-AC8D9B16C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="212">
   <si>
     <t>e_id</t>
   </si>
@@ -1167,10 +1167,10 @@
   <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3295,9 +3295,6 @@
       <c r="R54">
         <v>2</v>
       </c>
-      <c r="S54" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1">
       <c r="A55" s="3">
@@ -3338,9 +3335,6 @@
       </c>
       <c r="R55">
         <v>2</v>
-      </c>
-      <c r="S55" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" customHeight="1">
@@ -3685,7 +3679,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1">
       <c r="A65" s="3">
         <v>75</v>
       </c>
@@ -3714,7 +3708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1">
+    <row r="66" spans="1:19" ht="15.75" customHeight="1">
       <c r="A66" s="3">
         <v>76</v>
       </c>
@@ -3743,7 +3737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1">
+    <row r="67" spans="1:19" ht="15.75" customHeight="1">
       <c r="A67" s="3">
         <v>77</v>
       </c>
@@ -3771,8 +3765,14 @@
       <c r="Q67" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="3">
         <v>78</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1">
       <c r="A69" s="3">
         <v>79</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1">
+    <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="3">
         <v>80</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1">
+    <row r="71" spans="1:19" ht="15.75" customHeight="1">
       <c r="A71" s="3">
         <v>82</v>
       </c>
@@ -3896,8 +3896,14 @@
       <c r="Q71" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1">
       <c r="A72" s="3">
         <v>83</v>
       </c>
@@ -3930,6 +3936,12 @@
       </c>
       <c r="Q72" t="s">
         <v>129</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
